--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450838CC-FD5E-4199-8E08-7545B52DD709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3BBC80-615F-4EA5-826D-EB407DEDF36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -1680,9 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K108" sqref="K108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3BBC80-615F-4EA5-826D-EB407DEDF36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4817A-C512-44CA-8251-EA1F14ADEBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="372">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1132,6 +1132,39 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:11:1.0</t>
+  </si>
+  <si>
+    <t>Tendering Questions V1.0</t>
+  </si>
+  <si>
+    <t>Tendering Answers V1.0</t>
+  </si>
+  <si>
+    <t>Tender Clarification Request V1.0</t>
+  </si>
+  <si>
+    <t>Tender Clarification Response V1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t007:1.0::2.2 </t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:EnquiryResponse-2::EnquiryResponse##urn:fdc:peppol.eu:prac:trns:t008:1.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t009:1.0::2.2 </t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:EnquiryResponse-2::EnquiryResponse##urn:fdc:peppol.eu:prac:trns:t010:1.0::2.2</t>
+  </si>
+  <si>
+    <t>TICC-183</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p004:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p005:1.0</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1270,6 +1303,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1678,11 +1714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K151"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6480,6 +6516,138 @@
         <v>360</v>
       </c>
     </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E152" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" s="3">
+        <v>1</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E153" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" s="3">
+        <v>1</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D154" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E154" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" s="3">
+        <v>1</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E155" s="3" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="H155" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" s="3">
+        <v>1</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4817A-C512-44CA-8251-EA1F14ADEBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5950E59-4509-4A5B-96C1-FCE49F4EEBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="415">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1165,6 +1165,135 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p005:1.0</t>
+  </si>
+  <si>
+    <t>EHF Catalogue 1.0 (Profile 1A) (Catalogue)</t>
+  </si>
+  <si>
+    <t>EHF Catalogue 1.0 (Profile 1A) (Catalogue Response)</t>
+  </si>
+  <si>
+    <t>EHF Ordering 1.0 (Profile 28A) (Order)</t>
+  </si>
+  <si>
+    <t>EHF Ordering 1.0 (Profile 28A) (Order Response)</t>
+  </si>
+  <si>
+    <t>EHF Despatch Advise 1.0 (Profile 30) (Despatch Advice)</t>
+  </si>
+  <si>
+    <t>EHF Reminder 1.1 (Profile XY) (Reminder)</t>
+  </si>
+  <si>
+    <t>EHF Catalogue 3.0 (Catalogue)</t>
+  </si>
+  <si>
+    <t>EHF Catalogue 3.0 (Catalogue Response)</t>
+  </si>
+  <si>
+    <t>EHF Ordering 3.0 (Order)</t>
+  </si>
+  <si>
+    <t>EHF Ordering 3.0 (Order Response)</t>
+  </si>
+  <si>
+    <t>EHF Order Agreement 3.0 (Order Agreement)</t>
+  </si>
+  <si>
+    <t>EHF Despatch Advice 3.0 (Despatch Advice)</t>
+  </si>
+  <si>
+    <t>EHF Reminder 3.0 (Reminder)</t>
+  </si>
+  <si>
+    <t>EHF Payment Request 3.0 (Payment Request)</t>
+  </si>
+  <si>
+    <t>EHF Forward Billing 3.0 (Invoice)</t>
+  </si>
+  <si>
+    <t>EHF Forward Billing 3.0 (Credit Note)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Ordering 3.0 (Order)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Ordering 3.0 (Order Cancellation)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Ordering 3.0 (Order Change)</t>
+  </si>
+  <si>
+    <t>EHF Advanced Ordering 3.0 (Order Response)</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Catalogue-2::Catalogue##urn:www.cenbii.eu:transaction:biitrns019:ver2.0:extended:urn:www.peppol.eu:bis:peppol1a:ver2.0:extended:urn:www.difi.no:ehf:katalog:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biitrns058:ver2.0:extended:urn:www.difi.no:ehf:katalogbekreftelse:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Order-2::Order##urn:www.cenbii.eu:transaction:biitrns001:ver2.0:extended:urn:www.peppol.eu:bis:peppol28a:ver1.0:extended:urn:www.difi.no:ehf:ordre:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:www.cenbii.eu:transaction:biitrns076:ver2.0:extended:urn:www.peppol.eu:bis:peppol28a:ver1.0:extended:urn:www.difi.no:ehf:ordrebekreftelse:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:DespatchAdvice-2::DespatchAdvice##urn:www.cenbii.eu:transaction:biitrns016:ver1.0:extended:urn:www.peppol.eu:bis:peppol30a:ver1.0:extended:urn:www.difi.no:ehf:pakkseddel:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Reminder-2::Reminder##urn:www.cenbii.eu:transaction:biicoretrdm017:ver1.0:#urn:www.cenbii.eu:profile:biixy:ver1.0#urn:www.difi.no:ehf:purring:ver1::2.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Catalogue-2::Catalogue##urn:fdc:peppol.eu:poacc:trns:catalogue:3:extended:urn:fdc:anskaffelser.no:2019:ehf:spec:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:poacc:trns:catalogue_response:3:extended:urn:fdc:anskaffelser.no:2019:ehf:spec:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:fdc:peppol.eu:poacc:trns:order_agreement:3:extended:urn:fdc:anskaffelser.no:2019:ehf:spec:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:DespatchAdvice-2::DespatchAdvice##urn:fdc:peppol.eu:poacc:trns:despatch_advice:3:extended:urn:fdc:anskaffelser.no:2019:ehf:spec:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0#conformant#urn:fdc:anskaffelser.no:2019:ehf:reminder:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:fdc:anskaffelser.no:2019:ehf:spec:payment-request:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0#conformant#urn:fdc:anskaffelser.no:2019:ehf:forward-billing:3.0::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0#conformant#urn:fdc:anskaffelser.no:2019:ehf:forward-billing:3.0::2.2</t>
+  </si>
+  <si>
+    <t>TICC-185</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:www.cenbii.eu:profile:biixy:ver2.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:01:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:02:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:03:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:05:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:06:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:07:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:08:1.0</t>
   </si>
 </sst>
 </file>
@@ -1251,60 +1380,58 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1714,4805 +1841,4805 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K155"/>
+  <dimension ref="A1:K175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="103.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="70.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="1" width="47.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="103.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" style="8"/>
+    <col min="11" max="11" width="70.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="E2" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="E4" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="H4" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
+      <c r="E5" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="9">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="H5" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
         <v>2</v>
       </c>
-      <c r="H6" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="3" t="s">
+      <c r="H6" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="H7" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
         <v>7</v>
       </c>
-      <c r="H8" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="H8" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
         <v>2</v>
       </c>
-      <c r="H9" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="H9" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
         <v>3</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
         <v>2</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="11">
+      <c r="E11" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
         <v>7</v>
       </c>
-      <c r="H11" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
+      <c r="H11" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
         <v>2</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="H12" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="H12" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="11">
+      <c r="E13" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I13" s="3">
+      <c r="H13" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
         <v>2</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F14" s="11">
+      <c r="E14" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="H14" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="H14" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
+      <c r="E15" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
         <v>2</v>
       </c>
-      <c r="H15" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="H15" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="11">
+      <c r="E16" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
         <v>2</v>
       </c>
-      <c r="H16" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="H16" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
         <v>7</v>
       </c>
-      <c r="H17" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>2</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="E18" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
         <v>7</v>
       </c>
-      <c r="H18" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
         <v>2</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="3" t="s">
+      <c r="J18" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="E19" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
         <v>7</v>
       </c>
-      <c r="H19" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="3" t="s">
+      <c r="H19" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F20" s="11">
+      <c r="E20" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
         <v>7</v>
       </c>
-      <c r="H20" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="H20" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
         <v>7</v>
       </c>
-      <c r="H21" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="3" t="s">
+      <c r="H21" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F22" s="11">
+      <c r="E22" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
         <v>7</v>
       </c>
-      <c r="H22" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="H22" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K22" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
         <v>7</v>
       </c>
-      <c r="H23" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="H23" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="11">
+      <c r="E24" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
         <v>7</v>
       </c>
-      <c r="H24" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="H24" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="9">
         <v>2</v>
       </c>
-      <c r="H25" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="H25" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="E26" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="9">
         <v>7</v>
       </c>
-      <c r="H27" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="H27" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
         <v>3</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="H28" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="10">
         <v>3</v>
       </c>
-      <c r="E29" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F29" s="11">
+      <c r="E29" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F29" s="9">
         <v>7</v>
       </c>
-      <c r="H29" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="H29" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F30" s="11">
+      <c r="E30" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F30" s="9">
         <v>7</v>
       </c>
-      <c r="H30" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K30" s="3" t="s">
+      <c r="H30" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K30" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F31" s="11">
+      <c r="E31" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F31" s="9">
         <v>7</v>
       </c>
-      <c r="H31" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="H31" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="E32" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
         <v>3</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="4" t="s">
+      <c r="J32" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="E33" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
         <v>3</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="J33" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K33" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="10">
         <v>3</v>
       </c>
-      <c r="E34" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="3" t="s">
+      <c r="E34" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K34" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="10">
         <v>3</v>
       </c>
-      <c r="E35" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="3" t="s">
+      <c r="E35" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I36" s="3">
+      <c r="E36" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I36" s="8">
         <v>3</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>3</v>
       </c>
-      <c r="E37" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="E37" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="E38" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>3</v>
       </c>
-      <c r="E39" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="E39" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="E40" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>3</v>
       </c>
-      <c r="E41" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="E41" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>3</v>
       </c>
-      <c r="E42" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="E42" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>3</v>
       </c>
-      <c r="E43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="11">
+      <c r="E43" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9">
         <v>5</v>
       </c>
-      <c r="H43" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="4" t="s">
+      <c r="H43" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" s="11">
+      <c r="E44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" s="9">
         <v>5</v>
       </c>
-      <c r="H44" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K44" s="4" t="s">
+      <c r="H44" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>3</v>
       </c>
-      <c r="E45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" s="11">
+      <c r="E45" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9">
         <v>5</v>
       </c>
-      <c r="H45" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K45" s="4" t="s">
+      <c r="H45" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="3" t="s">
+      <c r="B46" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>3</v>
       </c>
-      <c r="E46" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="E46" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="B47" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>3</v>
       </c>
-      <c r="E47" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="E47" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>3</v>
       </c>
-      <c r="E48" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K48" s="4" t="s">
+      <c r="E48" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="3" t="s">
+      <c r="B49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>3</v>
       </c>
-      <c r="E49" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="E49" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="3" t="s">
+      <c r="B50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="11">
+      <c r="E50" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F50" s="9">
         <v>7</v>
       </c>
-      <c r="H50" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I50" s="3">
-        <v>1</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="H50" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="8">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>4</v>
       </c>
-      <c r="E51" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I51" s="3">
+      <c r="E51" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I51" s="8">
         <v>3</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K51" s="3" t="s">
+      <c r="J51" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="7">
         <v>4</v>
       </c>
-      <c r="E52" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="E52" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="8">
         <v>3</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="J52" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>4</v>
       </c>
-      <c r="E53" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I53" s="3">
+      <c r="E53" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I53" s="8">
         <v>3</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K53" s="3" t="s">
+      <c r="J53" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>4</v>
       </c>
-      <c r="E54" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="E54" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="8">
         <v>3</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K54" s="4" t="s">
+      <c r="J54" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>4</v>
       </c>
-      <c r="E55" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I55" s="3">
+      <c r="E55" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I55" s="8">
         <v>3</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K55" s="4" t="s">
+      <c r="J55" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>4</v>
       </c>
-      <c r="E56" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I56" s="3">
+      <c r="E56" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I56" s="8">
         <v>3</v>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="J56" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>4</v>
       </c>
-      <c r="E57" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="E57" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="8">
         <v>3</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>4</v>
       </c>
-      <c r="E58" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="E58" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="8">
         <v>3</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K58" s="4" t="s">
+      <c r="J58" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="8">
+      <c r="D59" s="7">
         <v>4</v>
       </c>
-      <c r="E59" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="E59" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I59" s="8">
         <v>3</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D60" s="8">
+      <c r="D60" s="7">
         <v>4</v>
       </c>
-      <c r="E60" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K60" s="4" t="s">
+      <c r="E60" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="8">
+      <c r="D61" s="7">
         <v>4</v>
       </c>
-      <c r="E61" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K61" s="4" t="s">
+      <c r="E61" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="8">
+      <c r="D62" s="7">
         <v>4</v>
       </c>
-      <c r="E62" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="E62" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I62" s="8">
         <v>3</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K62" s="4" t="s">
+      <c r="J62" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D63" s="8">
+      <c r="D63" s="7">
         <v>4</v>
       </c>
-      <c r="E63" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="11">
+      <c r="E63" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F63" s="9">
         <v>6</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="H63" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I63" s="3">
+      <c r="H63" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I63" s="8">
         <v>3</v>
       </c>
-      <c r="J63" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="J63" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="7">
         <v>6</v>
       </c>
-      <c r="E64" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I64" s="3">
+      <c r="E64" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I64" s="8">
         <v>3</v>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="7">
         <v>5</v>
       </c>
-      <c r="E65" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3" t="s">
+      <c r="E65" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="H65" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D66" s="8">
+      <c r="D66" s="7">
         <v>5</v>
       </c>
-      <c r="E66" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="E66" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H66" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K66" s="4" t="s">
+      <c r="H66" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="7">
         <v>5</v>
       </c>
-      <c r="E67" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="E67" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H67" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K67" s="4" t="s">
+      <c r="H67" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K67" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68" s="7">
         <v>6</v>
       </c>
-      <c r="E68" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="E68" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H68" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K68" s="4" t="s">
+      <c r="H68" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="11" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69" s="7">
         <v>6</v>
       </c>
-      <c r="E69" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="E69" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H69" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K69" s="4" t="s">
+      <c r="H69" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70" s="7">
         <v>6</v>
       </c>
-      <c r="E70" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="E70" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H70" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K70" s="4" t="s">
+      <c r="H70" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K70" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="B71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71" s="7">
         <v>6</v>
       </c>
-      <c r="E71" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G71" s="3" t="s">
+      <c r="E71" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H71" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I71" s="3">
+      <c r="H71" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I71" s="8">
         <v>3</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72" s="7">
         <v>6</v>
       </c>
-      <c r="E72" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="3" t="s">
+      <c r="E72" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H72" s="3" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="H72" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I72" s="8">
         <v>3</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K72" s="4" t="s">
+      <c r="J72" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73" s="7">
         <v>6</v>
       </c>
-      <c r="E73" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G73" s="3" t="s">
+      <c r="E73" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H73" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73" s="4" t="s">
+      <c r="H73" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="7">
         <v>6</v>
       </c>
-      <c r="E74" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G74" s="3" t="s">
+      <c r="E74" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="H74" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="H74" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74" s="11" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75" s="7">
         <v>6</v>
       </c>
-      <c r="E75" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G75" s="3" t="s">
+      <c r="E75" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H75" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K75" s="3" t="s">
+      <c r="H75" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75" s="8" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76" s="7">
         <v>6</v>
       </c>
-      <c r="E76" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="3" t="s">
+      <c r="E76" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="H76" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K76" s="3" t="s">
+      <c r="H76" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K76" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77" s="7">
         <v>7</v>
       </c>
-      <c r="E77" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" s="12" t="s">
+      <c r="E77" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H77" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K77" s="4" t="s">
+      <c r="H77" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="A78" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78" s="7">
         <v>7</v>
       </c>
-      <c r="E78" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12" t="s">
+      <c r="E78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H78" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K78" s="4" t="s">
+      <c r="H78" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79" s="7">
         <v>7</v>
       </c>
-      <c r="E79" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" s="12" t="s">
+      <c r="E79" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H79" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="H79" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K79" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="A80" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="7">
         <v>7</v>
       </c>
-      <c r="E80" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G80" s="3" t="s">
+      <c r="E80" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H80" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="H80" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="7">
         <v>7</v>
       </c>
-      <c r="E81" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
+      <c r="E81" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H81" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K81" s="4" t="s">
+      <c r="H81" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="7">
         <v>7</v>
       </c>
-      <c r="E82" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="16" t="s">
+      <c r="E82" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H82" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K82" s="4" t="s">
+      <c r="H82" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K82" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="3" t="s">
+      <c r="E83" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H83" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K83" s="4" t="s">
+      <c r="H83" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K83" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="A84" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="7">
         <v>7</v>
       </c>
-      <c r="E84" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="12" t="s">
+      <c r="E84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H84" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K84" s="4" t="s">
+      <c r="H84" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K84" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="7">
         <v>7</v>
       </c>
-      <c r="E85" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" s="12" t="s">
+      <c r="E85" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H85" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K85" s="4" t="s">
+      <c r="H85" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K85" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="A86" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="7">
         <v>7</v>
       </c>
-      <c r="E86" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" s="12" t="s">
+      <c r="E86" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H86" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K86" s="4" t="s">
+      <c r="H86" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="7">
         <v>7</v>
       </c>
-      <c r="E87" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="E87" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="H87" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="H87" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88" s="7">
         <v>7</v>
       </c>
-      <c r="E88" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="16" t="s">
+      <c r="E88" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H88" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K88" s="3" t="s">
+      <c r="H88" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K88" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>7</v>
       </c>
-      <c r="E89" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" s="16" t="s">
+      <c r="E89" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G89" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H89" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K89" s="3" t="s">
+      <c r="H89" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <v>7</v>
       </c>
-      <c r="E90" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" s="16" t="s">
+      <c r="E90" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G90" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H90" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K90" s="3" t="s">
+      <c r="H90" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <v>7</v>
       </c>
-      <c r="E91" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" s="16" t="s">
+      <c r="E91" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G91" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="H91" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="H91" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K91" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <v>7</v>
       </c>
-      <c r="E92" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="3" t="s">
+      <c r="E92" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H92" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="H92" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="D93" s="8">
+      <c r="D93" s="7">
         <v>7</v>
       </c>
-      <c r="E93" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="3" t="s">
+      <c r="E93" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H93" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K93" s="3" t="s">
+      <c r="H93" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="8">
+      <c r="D94" s="7">
         <v>7</v>
       </c>
-      <c r="E94" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="3" t="s">
+      <c r="E94" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="H94" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="H94" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E95" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="3" t="s">
+      <c r="E95" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H95" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K95" s="4" t="s">
+      <c r="H95" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E96" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="3" t="s">
+      <c r="E96" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H96" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K96" s="4" t="s">
+      <c r="H96" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K96" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E97" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="16" t="s">
+      <c r="E97" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G97" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H97" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K97" s="4" t="s">
+      <c r="H97" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K97" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="E98" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="H98" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K98" s="4" t="s">
+      <c r="H98" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E99" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="E99" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="H99" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="H99" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K99" s="8" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E100" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
+      <c r="E100" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H100" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K100" s="4" t="s">
+      <c r="H100" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B101" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" s="13" t="s">
+      <c r="B101" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E101" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="E101" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H101" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K101" s="15" t="s">
+      <c r="H101" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E102" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="3" t="s">
+      <c r="E102" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H102" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="H102" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="8" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E103" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="3" t="s">
+      <c r="E103" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="H103" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K103" s="3" t="s">
+      <c r="H103" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K103" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
+      <c r="A104" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="D104" s="12" t="s">
+      <c r="D104" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E104" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G104" s="3" t="s">
+      <c r="E104" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="H104" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="H104" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K104" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E105" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="3" t="s">
+      <c r="E105" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="H105" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K105" s="3" t="s">
+      <c r="H105" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K105" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E106" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="3" t="s">
+      <c r="E106" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="H106" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K106" s="3" t="s">
+      <c r="H106" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K106" s="8" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B107" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" s="17" t="s">
+      <c r="B107" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E107" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="3" t="s">
+      <c r="E107" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H107" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="H107" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K107" s="18" t="s">
+      <c r="K107" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B108" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" s="17" t="s">
+      <c r="B108" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E108" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="3" t="s">
+      <c r="E108" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H108" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J108" t="s">
+      <c r="H108" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K108" s="18" t="s">
+      <c r="K108" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="A109" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B109" t="s">
-        <v>60</v>
-      </c>
-      <c r="C109" s="17" t="s">
+      <c r="B109" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E109" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="3" t="s">
+      <c r="E109" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H109" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
+      <c r="H109" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K109" s="18" t="s">
+      <c r="K109" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="A110" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C110" s="17" t="s">
+      <c r="B110" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E110" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="3" t="s">
+      <c r="E110" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H110" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="H110" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K110" s="18" t="s">
+      <c r="K110" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="A111" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B111" t="s">
-        <v>60</v>
-      </c>
-      <c r="C111" s="17" t="s">
+      <c r="B111" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E111" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="3" t="s">
+      <c r="E111" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H111" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="H111" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K111" s="18" t="s">
+      <c r="K111" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B112" t="s">
-        <v>60</v>
-      </c>
-      <c r="C112" s="17" t="s">
+      <c r="B112" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E112" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="3" t="s">
+      <c r="E112" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H112" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J112" t="s">
+      <c r="H112" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K112" s="18" t="s">
+      <c r="K112" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B113" t="s">
-        <v>60</v>
-      </c>
-      <c r="C113" s="17" t="s">
+      <c r="B113" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E113" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="3" t="s">
+      <c r="E113" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H113" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
+      <c r="H113" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K113" s="18" t="s">
+      <c r="K113" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="A114" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B114" t="s">
-        <v>60</v>
-      </c>
-      <c r="C114" s="17" t="s">
+      <c r="B114" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E114" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="3" t="s">
+      <c r="E114" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H114" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="H114" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K114" s="18" t="s">
+      <c r="K114" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="A115" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B115" t="s">
-        <v>60</v>
-      </c>
-      <c r="C115" s="17" t="s">
+      <c r="B115" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E115" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="3" t="s">
+      <c r="E115" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H115" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
+      <c r="H115" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K115" s="18" t="s">
+      <c r="K115" s="8" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="A116" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B116" t="s">
-        <v>60</v>
-      </c>
-      <c r="C116" s="17" t="s">
+      <c r="B116" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E116" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="3" t="s">
+      <c r="E116" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H116" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
+      <c r="H116" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="A117" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B117" t="s">
-        <v>60</v>
-      </c>
-      <c r="C117" s="17" t="s">
+      <c r="B117" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E117" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G117" s="3" t="s">
+      <c r="E117" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H117" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J117" t="s">
+      <c r="H117" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B118" t="s">
-        <v>60</v>
-      </c>
-      <c r="C118" s="17" t="s">
+      <c r="B118" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E118" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G118" s="3" t="s">
+      <c r="E118" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H118" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J118" t="s">
+      <c r="H118" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B119" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="17" t="s">
+      <c r="B119" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E119" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G119" s="3" t="s">
+      <c r="E119" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H119" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J119" t="s">
+      <c r="H119" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
+      <c r="A120" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B120" t="s">
-        <v>60</v>
-      </c>
-      <c r="C120" s="17" t="s">
+      <c r="B120" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E120" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G120" s="3" t="s">
+      <c r="E120" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H120" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
+      <c r="H120" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
+      <c r="A121" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B121" t="s">
-        <v>60</v>
-      </c>
-      <c r="C121" s="17" t="s">
+      <c r="B121" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E121" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G121" s="3" t="s">
+      <c r="E121" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H121" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J121" t="s">
+      <c r="H121" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B122" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="17" t="s">
+      <c r="B122" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E122" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G122" s="3" t="s">
+      <c r="E122" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H122" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="H122" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B123" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="17" t="s">
+      <c r="B123" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E123" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G123" s="3" t="s">
+      <c r="E123" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H123" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="H123" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B124" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="17" t="s">
+      <c r="B124" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E124" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G124" s="3" t="s">
+      <c r="E124" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H124" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J124" t="s">
+      <c r="H124" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K124" s="8" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B125" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" s="17" t="s">
+      <c r="B125" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E125" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G125" s="3" t="s">
+      <c r="E125" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H125" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
+      <c r="H125" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B126" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="17" t="s">
+      <c r="B126" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E126" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G126" s="3" t="s">
+      <c r="E126" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H126" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
+      <c r="H126" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B127" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" s="17" t="s">
+      <c r="B127" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E127" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G127" s="3" t="s">
+      <c r="E127" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H127" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J127" t="s">
+      <c r="H127" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A128" s="17" t="s">
+      <c r="A128" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B128" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" s="17" t="s">
+      <c r="B128" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E128" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G128" s="3" t="s">
+      <c r="E128" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H128" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J128" t="s">
+      <c r="H128" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="17" t="s">
+      <c r="A129" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B129" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="17" t="s">
+      <c r="B129" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E129" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G129" s="3" t="s">
+      <c r="E129" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H129" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J129" t="s">
+      <c r="H129" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A130" s="17" t="s">
+      <c r="A130" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B130" t="s">
-        <v>60</v>
-      </c>
-      <c r="C130" s="17" t="s">
+      <c r="B130" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E130" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G130" s="3" t="s">
+      <c r="E130" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H130" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="H130" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="17" t="s">
+      <c r="A131" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B131" t="s">
-        <v>60</v>
-      </c>
-      <c r="C131" s="17" t="s">
+      <c r="B131" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E131" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G131" s="3" t="s">
+      <c r="E131" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H131" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
+      <c r="H131" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="17" t="s">
+      <c r="A132" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B132" t="s">
-        <v>60</v>
-      </c>
-      <c r="C132" s="17" t="s">
+      <c r="B132" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E132" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G132" s="3" t="s">
+      <c r="E132" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H132" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="H132" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="17" t="s">
+      <c r="A133" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B133" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" s="17" t="s">
+      <c r="B133" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E133" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G133" s="3" t="s">
+      <c r="E133" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H133" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="H133" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133" s="8" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="17" t="s">
+      <c r="A134" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B134" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="17" t="s">
+      <c r="B134" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E134" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="E134" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H134" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J134" t="s">
+      <c r="H134" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="17" t="s">
+      <c r="A135" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B135" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" s="17" t="s">
+      <c r="B135" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E135" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G135" s="3" t="s">
+      <c r="E135" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H135" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J135" t="s">
+      <c r="H135" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="17" t="s">
+      <c r="A136" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B136" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" s="17" t="s">
+      <c r="B136" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E136" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G136" s="3" t="s">
+      <c r="E136" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H136" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J136" t="s">
+      <c r="H136" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="17" t="s">
+      <c r="A137" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B137" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="17" t="s">
+      <c r="B137" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E137" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G137" s="3" t="s">
+      <c r="E137" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H137" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J137" t="s">
+      <c r="H137" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K137" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="17" t="s">
+      <c r="A138" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B138" t="s">
-        <v>60</v>
-      </c>
-      <c r="C138" s="17" t="s">
+      <c r="B138" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E138" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G138" s="3" t="s">
+      <c r="E138" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H138" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J138" t="s">
+      <c r="H138" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K138" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
+      <c r="A139" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B139" t="s">
-        <v>60</v>
-      </c>
-      <c r="C139" s="17" t="s">
+      <c r="B139" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E139" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G139" s="3" t="s">
+      <c r="E139" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H139" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
+      <c r="H139" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J139" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K139" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
+      <c r="A140" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B140" t="s">
-        <v>60</v>
-      </c>
-      <c r="C140" s="17" t="s">
+      <c r="B140" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E140" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G140" s="3" t="s">
+      <c r="E140" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H140" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
+      <c r="H140" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J140" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K140" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
+      <c r="A141" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B141" t="s">
-        <v>60</v>
-      </c>
-      <c r="C141" s="17" t="s">
+      <c r="B141" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E141" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G141" s="3" t="s">
+      <c r="E141" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H141" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="H141" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J141" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B142" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" s="17" t="s">
+      <c r="B142" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E142" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G142" s="3" t="s">
+      <c r="E142" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H142" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="H142" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J142" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142" s="8" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
+      <c r="A143" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B143" t="s">
-        <v>60</v>
-      </c>
-      <c r="C143" s="17" t="s">
+      <c r="B143" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E143" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H143" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="H143" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
+      <c r="A144" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B144" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" s="17" t="s">
+      <c r="B144" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E144" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G144" s="3" t="s">
+      <c r="E144" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H144" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="H144" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J144" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
+      <c r="A145" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B145" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" s="17" t="s">
+      <c r="B145" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E145" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G145" s="3" t="s">
+      <c r="E145" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H145" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J145" t="s">
+      <c r="H145" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J145" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145" s="8" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+      <c r="A146" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B146" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" s="17" t="s">
+      <c r="B146" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E146" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="E146" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H146" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J146" t="s">
+      <c r="H146" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J146" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B147" t="s">
-        <v>60</v>
-      </c>
-      <c r="C147" s="17" t="s">
+      <c r="B147" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E147" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G147" s="3" t="s">
+      <c r="E147" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H147" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J147" t="s">
+      <c r="H147" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J147" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
+      <c r="A148" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B148" t="s">
-        <v>60</v>
-      </c>
-      <c r="C148" s="17" t="s">
+      <c r="B148" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E148" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G148" s="3" t="s">
+      <c r="E148" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G148" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H148" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J148" t="s">
+      <c r="H148" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J148" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148" s="8" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
+      <c r="A149" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B149" t="s">
-        <v>60</v>
-      </c>
-      <c r="C149" s="17" t="s">
+      <c r="B149" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E149" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G149" s="3" t="s">
+      <c r="E149" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G149" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H149" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J149" t="s">
+      <c r="H149" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J149" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
+      <c r="A150" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B150" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" s="17" t="s">
+      <c r="B150" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E150" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G150" s="3" t="s">
+      <c r="E150" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G150" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H150" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J150" t="s">
+      <c r="H150" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150" s="8" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
+      <c r="A151" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B151" t="s">
-        <v>60</v>
-      </c>
-      <c r="C151" s="17" t="s">
+      <c r="B151" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E151" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G151" s="3" t="s">
+      <c r="E151" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G151" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="H151" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J151" t="s">
+      <c r="H151" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151" s="8" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6520,32 +6647,32 @@
       <c r="A152" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C152" s="3" t="s">
+      <c r="B152" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E152" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G152" s="3" t="s">
+      <c r="E152" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G152" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="H152" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I152" s="3">
-        <v>1</v>
-      </c>
-      <c r="J152" s="3" t="s">
+      <c r="H152" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" s="8">
+        <v>1</v>
+      </c>
+      <c r="J152" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K152" s="3" t="s">
+      <c r="K152" s="8" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6553,32 +6680,32 @@
       <c r="A153" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C153" s="3" t="s">
+      <c r="B153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E153" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G153" s="3" t="s">
+      <c r="E153" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G153" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="H153" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I153" s="3">
-        <v>1</v>
-      </c>
-      <c r="J153" s="3" t="s">
+      <c r="H153" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I153" s="8">
+        <v>1</v>
+      </c>
+      <c r="J153" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K153" s="3" t="s">
+      <c r="K153" s="8" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6586,32 +6713,32 @@
       <c r="A154" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B154" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C154" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E154" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G154" s="3" t="s">
+      <c r="E154" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G154" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="H154" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I154" s="3">
-        <v>1</v>
-      </c>
-      <c r="J154" s="3" t="s">
+      <c r="H154" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" s="8">
+        <v>1</v>
+      </c>
+      <c r="J154" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K154" s="3" t="s">
+      <c r="K154" s="8" t="s">
         <v>371</v>
       </c>
     </row>
@@ -6619,33 +6746,633 @@
       <c r="A155" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C155" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="E155" s="3" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="3" t="s">
+      <c r="E155" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G155" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="H155" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I155" s="3">
-        <v>1</v>
-      </c>
-      <c r="J155" s="3" t="s">
+      <c r="H155" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" s="8">
+        <v>1</v>
+      </c>
+      <c r="J155" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="K155" s="3" t="s">
+      <c r="K155" s="8" t="s">
         <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D156" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E156" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G156" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H156" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K156" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E157" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H157" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K157" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E158" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G158" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H158" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K158" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E159" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H159" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D160" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E160" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H160" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D161" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E161" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H161" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="D162" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E162" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H162" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K162" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E163" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H163" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E164" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H164" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K164" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E165" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H165" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E166" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H166" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K166" s="8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E167" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H167" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E168" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H168" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K168" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E169" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H169" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K169" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="D170" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E170" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H170" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K170" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E171" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G171" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H171" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K171" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E172" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G172" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H172" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K172" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D173" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E173" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G173" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H173" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K173" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D174" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E174" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H174" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K174" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D175" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E175" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H175" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K175" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5950E59-4509-4A5B-96C1-FCE49F4EEBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12673BB-94EC-4539-9710-09389EE3945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$K$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$K$77</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="424">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1294,6 +1294,34 @@
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:08:1.0</t>
+  </si>
+  <si>
+    <t>TICC-186</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:www.cenbii.eu:transaction:biitrns076:ver2.0:extended:urn:www.peppol.eu:bis:peppol28a:ver1.0:extended:urn:fdc:peppol-authority.co.uk:spec:ordering:ver1.0::2.1</t>
+  </si>
+  <si>
+    <t>DHSC Customized Ordering profile OrderResponse V1 (invalid)</t>
+  </si>
+  <si>
+    <t>SG PEPPOL BIS Billing 3.0 Credit Note (invalid)</t>
+  </si>
+  <si>
+    <t>Typo in local name
+TICC-186</t>
+  </si>
+  <si>
+    <t>PEPPOL Ordering profile OrderResponse V1 (invalid)</t>
+  </si>
+  <si>
+    <t>Typo in local name!</t>
+  </si>
+  <si>
+    <t>Typo in Customization ID!</t>
+  </si>
+  <si>
+    <t>PEPPOL Order profile V2 (invalid)</t>
   </si>
 </sst>
 </file>
@@ -1841,11 +1869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2200,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>60</v>
@@ -2191,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>51</v>
+        <v>422</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>TRUE</f>
@@ -2778,7 +2806,7 @@
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>60</v>
@@ -2796,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>51</v>
+        <v>421</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>TRUE</f>
@@ -3006,7 +3034,7 @@
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>60</v>
@@ -3018,8 +3046,14 @@
         <v>3</v>
       </c>
       <c r="E35" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>419</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>FALSE</f>
@@ -3032,46 +3066,46 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E36" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="H36" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="8" t="s">
+      <c r="B37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="D36" s="7">
-        <v>3</v>
-      </c>
-      <c r="E36" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I36" s="8">
-        <v>3</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="D37" s="7">
         <v>3</v>
@@ -3085,24 +3119,24 @@
         <v>1</v>
       </c>
       <c r="I37" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>174</v>
+        <v>142</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -3127,13 +3161,13 @@
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="7">
         <v>3</v>
@@ -3153,18 +3187,18 @@
         <v>141</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -3189,13 +3223,13 @@
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D41" s="7">
         <v>3</v>
@@ -3215,18 +3249,18 @@
         <v>141</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -3249,45 +3283,46 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D43" s="7">
         <v>3</v>
       </c>
       <c r="E43" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="9">
-        <v>5</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="H43" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="8">
+        <v>1</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>158</v>
+        <v>141</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -3311,13 +3346,13 @@
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D45" s="7">
         <v>3</v>
@@ -3339,22 +3374,24 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D46" s="7">
         <v>3</v>
       </c>
       <c r="E46" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F46" s="9">
+        <v>5</v>
       </c>
       <c r="H46" s="8" t="b">
         <f>FALSE</f>
@@ -3364,18 +3401,18 @@
         <v>142</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="7">
         <v>3</v>
@@ -3392,18 +3429,18 @@
         <v>142</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
@@ -3420,18 +3457,18 @@
         <v>142</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="7">
         <v>3</v>
@@ -3453,78 +3490,75 @@
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D50" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F50" s="9">
-        <v>7</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="H50" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I50" s="8">
-        <v>1</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K50" s="8" t="s">
-        <v>159</v>
+      <c r="K50" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="7">
         <v>4</v>
       </c>
       <c r="E51" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F51" s="9">
+        <v>7</v>
       </c>
       <c r="H51" s="8" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
       <c r="I51" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>142</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -3543,19 +3577,19 @@
       <c r="J52" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K52" s="11" t="s">
-        <v>161</v>
+      <c r="K52" s="8" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53" s="7">
         <v>4</v>
@@ -3574,19 +3608,19 @@
       <c r="J53" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K53" s="8" t="s">
-        <v>162</v>
+      <c r="K53" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -3605,19 +3639,19 @@
       <c r="J54" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>163</v>
+      <c r="K54" s="8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55" s="7">
         <v>4</v>
@@ -3637,18 +3671,18 @@
         <v>142</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
@@ -3668,18 +3702,18 @@
         <v>142</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D57" s="7">
         <v>4</v>
@@ -3699,18 +3733,18 @@
         <v>142</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
@@ -3730,18 +3764,18 @@
         <v>142</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="7">
         <v>4</v>
@@ -3761,18 +3795,18 @@
         <v>142</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D60" s="7">
         <v>4</v>
@@ -3782,25 +3816,28 @@
         <v>0</v>
       </c>
       <c r="H60" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I60" s="8">
+        <v>3</v>
       </c>
       <c r="J60" s="8" t="s">
         <v>142</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D61" s="7">
         <v>4</v>
@@ -3822,13 +3859,13 @@
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
@@ -3838,11 +3875,8 @@
         <v>0</v>
       </c>
       <c r="H62" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I62" s="8">
-        <v>3</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="J62" s="8" t="s">
         <v>142</v>
@@ -3851,28 +3885,22 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
       </c>
       <c r="E63" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="F63" s="9">
-        <v>6</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>51</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="H63" s="8" t="b">
         <f>TRUE</f>
@@ -3890,20 +3918,26 @@
     </row>
     <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="D64" s="7">
+        <v>4</v>
+      </c>
+      <c r="E64" s="8" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="F64" s="9">
         <v>6</v>
       </c>
-      <c r="E64" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="G64" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="H64" s="8" t="b">
         <f>TRUE</f>
@@ -3921,27 +3955,27 @@
     </row>
     <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="H65" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I65" s="8">
+        <v>3</v>
       </c>
       <c r="J65" s="8" t="s">
         <v>142</v>
@@ -3952,13 +3986,13 @@
     </row>
     <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="7">
         <v>5</v>
@@ -3983,13 +4017,13 @@
     </row>
     <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="7">
         <v>5</v>
@@ -4012,46 +4046,46 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="7">
+        <v>5</v>
+      </c>
+      <c r="E68" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H68" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C68" s="8" t="s">
+      <c r="B69" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="D68" s="7">
-        <v>6</v>
-      </c>
-      <c r="E68" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="H68" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K68" s="11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>134</v>
       </c>
       <c r="D69" s="7">
         <v>6</v>
@@ -4061,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H69" s="8" t="b">
         <f>FALSE</f>
@@ -4071,18 +4105,18 @@
         <v>142</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D70" s="7">
         <v>6</v>
@@ -4092,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H70" s="8" t="b">
         <f>FALSE</f>
@@ -4102,18 +4136,18 @@
         <v>142</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>145</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D71" s="7">
         <v>6</v>
@@ -4123,31 +4157,28 @@
         <v>0</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H71" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="I71" s="8">
-        <v>3</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>142</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D72" s="7">
         <v>6</v>
@@ -4174,14 +4205,14 @@
       </c>
     </row>
     <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>143</v>
+      <c r="A73" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" s="7">
         <v>6</v>
@@ -4191,28 +4222,31 @@
         <v>0</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>283</v>
+        <v>245</v>
       </c>
       <c r="H73" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="I73" s="8">
+        <v>3</v>
       </c>
       <c r="J73" s="8" t="s">
         <v>142</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>280</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D74" s="7">
         <v>6</v>
@@ -4237,13 +4271,13 @@
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="D75" s="7">
         <v>6</v>
@@ -4253,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="H75" s="8" t="b">
         <f>FALSE</f>
@@ -4262,19 +4296,19 @@
       <c r="J75" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K75" s="8" t="s">
-        <v>181</v>
+      <c r="K75" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D76" s="7">
         <v>6</v>
@@ -4294,51 +4328,49 @@
         <v>142</v>
       </c>
       <c r="K76" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="7">
+        <v>6</v>
+      </c>
+      <c r="E77" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="H77" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77" s="8" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="7">
-        <v>7</v>
-      </c>
-      <c r="E77" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H77" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" s="7">
         <v>7</v>
@@ -4365,13 +4397,13 @@
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D79" s="7">
         <v>7</v>
@@ -4398,23 +4430,25 @@
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="D80" s="7">
         <v>7</v>
       </c>
       <c r="E80" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H80" s="8" t="b">
         <f>FALSE</f>
@@ -4429,13 +4463,13 @@
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D81" s="7">
         <v>7</v>
@@ -4460,22 +4494,20 @@
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="D82" s="7">
         <v>7</v>
       </c>
       <c r="E82" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>276</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="G82" s="8" t="s">
         <v>243</v>
@@ -4493,23 +4525,25 @@
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>203</v>
+        <v>274</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D83" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D83" s="7">
+        <v>7</v>
+      </c>
+      <c r="E83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
       <c r="G83" s="8" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="H83" s="8" t="b">
         <f>FALSE</f>
@@ -4524,25 +4558,23 @@
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D84" s="7">
-        <v>7</v>
+        <v>275</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="E84" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>236</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="H84" s="8" t="b">
         <f>FALSE</f>
@@ -4555,15 +4587,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85" s="7">
         <v>7</v>
@@ -4590,13 +4622,13 @@
     </row>
     <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86" s="7">
         <v>7</v>
@@ -4623,23 +4655,25 @@
     </row>
     <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87" s="7">
         <v>7</v>
       </c>
       <c r="E87" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H87" s="8" t="b">
         <f>FALSE</f>
@@ -4652,27 +4686,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D88" s="7">
         <v>7</v>
       </c>
       <c r="E88" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>260</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H88" s="8" t="b">
         <f>FALSE</f>
@@ -4681,19 +4713,19 @@
       <c r="J88" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="K88" s="8" t="s">
-        <v>218</v>
+      <c r="K88" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D89" s="7">
         <v>7</v>
@@ -4720,13 +4752,13 @@
     </row>
     <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D90" s="7">
         <v>7</v>
@@ -4751,15 +4783,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D91" s="7">
         <v>7</v>
@@ -4784,25 +4816,27 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D92" s="7">
         <v>7</v>
       </c>
       <c r="E92" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>260</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H92" s="8" t="b">
         <f>FALSE</f>
@@ -4812,18 +4846,18 @@
         <v>142</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D93" s="7">
         <v>7</v>
@@ -4846,15 +4880,15 @@
         <v>231</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94" s="7">
         <v>7</v>
@@ -4879,44 +4913,44 @@
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D95" s="7">
+        <v>7</v>
+      </c>
+      <c r="E95" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H95" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="B96" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E95" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H95" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K95" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D96" s="10" t="s">
         <v>236</v>
@@ -4941,22 +4975,20 @@
     </row>
     <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D97" s="10" t="s">
         <v>236</v>
       </c>
       <c r="E97" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>276</v>
+        <f>FALSE</f>
+        <v>0</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>239</v>
@@ -4974,23 +5006,25 @@
     </row>
     <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E98" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
       <c r="G98" s="8" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="H98" s="8" t="b">
         <f>FALSE</f>
@@ -5003,46 +5037,46 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="E99" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="H99" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K99" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C99" s="8" t="s">
+      <c r="B100" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>251</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E99" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H99" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>252</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>236</v>
@@ -5052,87 +5086,90 @@
         <v>0</v>
       </c>
       <c r="G100" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H100" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E101" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="H100" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K100" s="11" t="s">
+      <c r="H101" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="15" t="s">
+    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B101" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C101" s="15" t="s">
+      <c r="B102" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D102" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E101" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G101" s="8" t="s">
+      <c r="E102" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H101" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J101" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K101" s="17" t="s">
+      <c r="H102" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K102" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="B103" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E102" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H102" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>260</v>
@@ -5142,28 +5179,25 @@
         <v>0</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H103" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="K103" s="8" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>260</v>
@@ -5188,13 +5222,13 @@
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>260</v>
@@ -5217,15 +5251,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D106" s="13" t="s">
         <v>260</v>
@@ -5248,46 +5282,46 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+    <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="E107" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="H107" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B107" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C107" s="1" t="s">
+      <c r="B108" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E107" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H107" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B108" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>351</v>
@@ -5312,13 +5346,13 @@
     </row>
     <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>351</v>
@@ -5343,13 +5377,13 @@
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D110" s="10" t="s">
         <v>351</v>
@@ -5374,13 +5408,13 @@
     </row>
     <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>351</v>
@@ -5405,13 +5439,13 @@
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D112" s="10" t="s">
         <v>351</v>
@@ -5436,13 +5470,13 @@
     </row>
     <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>351</v>
@@ -5465,15 +5499,15 @@
         <v>354</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D114" s="10" t="s">
         <v>351</v>
@@ -5498,13 +5532,13 @@
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>351</v>
@@ -5529,13 +5563,13 @@
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>351</v>
@@ -5555,18 +5589,18 @@
         <v>353</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D117" s="10" t="s">
         <v>351</v>
@@ -5591,13 +5625,13 @@
     </row>
     <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="10" t="s">
         <v>351</v>
@@ -5622,13 +5656,13 @@
     </row>
     <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D119" s="10" t="s">
         <v>351</v>
@@ -5653,13 +5687,13 @@
     </row>
     <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D120" s="10" t="s">
         <v>351</v>
@@ -5684,13 +5718,13 @@
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D121" s="10" t="s">
         <v>351</v>
@@ -5715,13 +5749,13 @@
     </row>
     <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D122" s="10" t="s">
         <v>351</v>
@@ -5744,15 +5778,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D123" s="10" t="s">
         <v>351</v>
@@ -5777,13 +5811,13 @@
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D124" s="10" t="s">
         <v>351</v>
@@ -5808,13 +5842,13 @@
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>351</v>
@@ -5834,18 +5868,18 @@
         <v>353</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>351</v>
@@ -5870,13 +5904,13 @@
     </row>
     <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D127" s="10" t="s">
         <v>351</v>
@@ -5901,13 +5935,13 @@
     </row>
     <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D128" s="10" t="s">
         <v>351</v>
@@ -5932,13 +5966,13 @@
     </row>
     <row r="129" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D129" s="10" t="s">
         <v>351</v>
@@ -5963,13 +5997,13 @@
     </row>
     <row r="130" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D130" s="10" t="s">
         <v>351</v>
@@ -5994,13 +6028,13 @@
     </row>
     <row r="131" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D131" s="10" t="s">
         <v>351</v>
@@ -6023,15 +6057,15 @@
         <v>356</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D132" s="10" t="s">
         <v>351</v>
@@ -6056,13 +6090,13 @@
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>351</v>
@@ -6087,13 +6121,13 @@
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D134" s="10" t="s">
         <v>351</v>
@@ -6113,18 +6147,18 @@
         <v>353</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D135" s="10" t="s">
         <v>351</v>
@@ -6149,13 +6183,13 @@
     </row>
     <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D136" s="10" t="s">
         <v>351</v>
@@ -6180,13 +6214,13 @@
     </row>
     <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D137" s="10" t="s">
         <v>351</v>
@@ -6211,13 +6245,13 @@
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D138" s="10" t="s">
         <v>351</v>
@@ -6242,13 +6276,13 @@
     </row>
     <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D139" s="10" t="s">
         <v>351</v>
@@ -6273,13 +6307,13 @@
     </row>
     <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D140" s="10" t="s">
         <v>351</v>
@@ -6302,15 +6336,15 @@
         <v>357</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D141" s="10" t="s">
         <v>351</v>
@@ -6335,13 +6369,13 @@
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>351</v>
@@ -6366,13 +6400,13 @@
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D143" s="10" t="s">
         <v>351</v>
@@ -6392,18 +6426,18 @@
         <v>353</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D144" s="10" t="s">
         <v>351</v>
@@ -6428,13 +6462,13 @@
     </row>
     <row r="145" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="D145" s="10" t="s">
         <v>351</v>
@@ -6457,15 +6491,15 @@
         <v>358</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D146" s="10" t="s">
         <v>351</v>
@@ -6485,18 +6519,18 @@
         <v>353</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D147" s="10" t="s">
         <v>351</v>
@@ -6521,13 +6555,13 @@
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D148" s="10" t="s">
         <v>351</v>
@@ -6550,15 +6584,15 @@
         <v>359</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D149" s="10" t="s">
         <v>351</v>
@@ -6578,18 +6612,18 @@
         <v>353</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D150" s="10" t="s">
         <v>351</v>
@@ -6614,13 +6648,13 @@
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D151" s="10" t="s">
         <v>351</v>
@@ -6643,15 +6677,15 @@
         <v>360</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>365</v>
+    <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>351</v>
@@ -6661,30 +6695,28 @@
         <v>0</v>
       </c>
       <c r="G152" s="8" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="H152" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I152" s="8">
-        <v>1</v>
-      </c>
-      <c r="J152" s="8" t="s">
-        <v>141</v>
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J152" s="18" t="s">
+        <v>353</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>351</v>
@@ -6709,15 +6741,15 @@
         <v>370</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>351</v>
@@ -6739,18 +6771,18 @@
         <v>141</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>351</v>
@@ -6775,15 +6807,15 @@
         <v>371</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>372</v>
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="19" t="s">
+        <v>364</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>351</v>
@@ -6793,27 +6825,30 @@
         <v>0</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="H156" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I156" s="8">
+        <v>1</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>351</v>
@@ -6837,13 +6872,13 @@
     </row>
     <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>351</v>
@@ -6862,18 +6897,18 @@
         <v>142</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>351</v>
@@ -6897,13 +6932,13 @@
     </row>
     <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>351</v>
@@ -6922,18 +6957,18 @@
         <v>142</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>351</v>
@@ -6952,18 +6987,18 @@
         <v>142</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>351</v>
@@ -6982,18 +7017,18 @@
         <v>142</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>351</v>
@@ -7015,15 +7050,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>351</v>
@@ -7042,18 +7077,18 @@
         <v>142</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D165" s="10" t="s">
         <v>351</v>
@@ -7077,13 +7112,13 @@
     </row>
     <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>351</v>
@@ -7102,18 +7137,18 @@
         <v>142</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>351</v>
@@ -7132,18 +7167,18 @@
         <v>142</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>351</v>
@@ -7162,18 +7197,18 @@
         <v>142</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>351</v>
@@ -7192,18 +7227,18 @@
         <v>142</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>351</v>
@@ -7222,18 +7257,18 @@
         <v>142</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>351</v>
@@ -7255,15 +7290,15 @@
         <v>414</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>269</v>
+        <v>405</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>351</v>
@@ -7282,18 +7317,18 @@
         <v>142</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>218</v>
+        <v>414</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D173" s="10" t="s">
         <v>351</v>
@@ -7317,13 +7352,13 @@
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D174" s="10" t="s">
         <v>351</v>
@@ -7345,15 +7380,15 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D175" s="10" t="s">
         <v>351</v>
@@ -7375,8 +7410,38 @@
         <v>218</v>
       </c>
     </row>
+    <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E176" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="H176" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K176" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12673BB-94EC-4539-9710-09389EE3945A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FAF4DC-9475-483C-8719-0053DF23DEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="431">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1322,6 +1322,27 @@
   </si>
   <si>
     <t>PEPPOL Order profile V2 (invalid)</t>
+  </si>
+  <si>
+    <t>XRechnung UBL Invoice V2.1</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V2.1</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.1::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.1::D16B</t>
+  </si>
+  <si>
+    <t>TICC-188</t>
   </si>
 </sst>
 </file>
@@ -1869,11 +1890,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7440,6 +7461,93 @@
         <v>218</v>
       </c>
     </row>
+    <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="D177" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E177" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H177" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K177" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E178" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H178" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K178" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="D179" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E179" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="H179" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K179" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FAF4DC-9475-483C-8719-0053DF23DEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208217C6-8D50-4248-9B23-EB6281236E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="439">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1343,6 +1343,31 @@
   </si>
   <si>
     <t>TICC-188</t>
+  </si>
+  <si>
+    <t>XRechnung UBL Invoice V2.1 Extension</t>
+  </si>
+  <si>
+    <t>XRechnung UBL CreditNote V2.1 Extension</t>
+  </si>
+  <si>
+    <t>XRechnung CII Invoice V2.1 Extension</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.1#conformant#urn:xoev-de:kosit:extension:xrechnung_2.1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.1#conformant#urn:xoev-de:kosit:extension:xrechnung_2.1::2.1</t>
+  </si>
+  <si>
+    <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:xoev-de:kosit:standard:xrechnung_2.1#conformant#urn:xoev-de:kosit:extension:xrechnung_2.1::D16B</t>
+  </si>
+  <si>
+    <t>TICC-189</t>
+  </si>
+  <si>
+    <t>Typo in syntax version
+TICC-135</t>
   </si>
 </sst>
 </file>
@@ -1890,11 +1915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K179"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5045,7 +5070,7 @@
         <v>276</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>239</v>
+        <v>438</v>
       </c>
       <c r="H98" s="8" t="b">
         <f>FALSE</f>
@@ -7545,6 +7570,93 @@
         <v>142</v>
       </c>
       <c r="K179" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E180" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G180" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H180" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K180" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E181" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G181" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H181" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K181" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E182" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="H182" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K182" s="11" t="s">
         <v>158</v>
       </c>
     </row>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208217C6-8D50-4248-9B23-EB6281236E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5F58D-5269-46B2-85FC-EC40111B8983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -27,6 +27,15 @@
     <definedName name="_ftnref4" localSheetId="0">'Document Type'!$A$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1110,9 +1119,6 @@
     <t>TICC-180</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:01:1.0</t>
   </si>
   <si>
@@ -1368,6 +1374,9 @@
   <si>
     <t>Typo in syntax version
 TICC-135</t>
+  </si>
+  <si>
+    <t>Norwegian Payment</t>
   </si>
 </sst>
 </file>
@@ -1917,9 +1926,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A183" sqref="A183"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +1941,8 @@
     <col min="6" max="6" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="8"/>
+    <col min="9" max="9" width="11.42578125" style="8"/>
+    <col min="10" max="10" width="19.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="70.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="11.42578125" style="8"/>
   </cols>
@@ -2246,7 +2256,7 @@
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>60</v>
@@ -2265,7 +2275,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>TRUE</f>
@@ -2852,7 +2862,7 @@
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>60</v>
@@ -2870,7 +2880,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>TRUE</f>
@@ -3080,7 +3090,7 @@
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>60</v>
@@ -3099,7 +3109,7 @@
         <v>351</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>FALSE</f>
@@ -3120,7 +3130,7 @@
         <v>60</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>351</v>
@@ -3130,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H36" s="8" t="b">
         <f>FALSE</f>
@@ -3964,7 +3974,7 @@
     </row>
     <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>60</v>
@@ -5070,7 +5080,7 @@
         <v>276</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H98" s="8" t="b">
         <f>FALSE</f>
@@ -5384,10 +5394,10 @@
         <v>0</v>
       </c>
       <c r="J108" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K108" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5415,10 +5425,10 @@
         <v>0</v>
       </c>
       <c r="J109" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K109" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5446,10 +5456,10 @@
         <v>0</v>
       </c>
       <c r="J110" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K110" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K110" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5477,10 +5487,10 @@
         <v>0</v>
       </c>
       <c r="J111" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K111" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5508,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="J112" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K112" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5539,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="J113" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K113" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5570,10 +5580,10 @@
         <v>0</v>
       </c>
       <c r="J114" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K114" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5601,10 +5611,10 @@
         <v>0</v>
       </c>
       <c r="J115" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K115" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5632,10 +5642,10 @@
         <v>0</v>
       </c>
       <c r="J116" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5663,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="J117" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5694,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5725,10 +5735,10 @@
         <v>0</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5756,10 +5766,10 @@
         <v>0</v>
       </c>
       <c r="J120" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5787,10 +5797,10 @@
         <v>0</v>
       </c>
       <c r="J121" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5818,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="J122" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5849,10 +5859,10 @@
         <v>0</v>
       </c>
       <c r="J123" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5880,10 +5890,10 @@
         <v>0</v>
       </c>
       <c r="J124" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5911,10 +5921,10 @@
         <v>0</v>
       </c>
       <c r="J125" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -5942,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5973,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6004,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6035,10 +6045,10 @@
         <v>0</v>
       </c>
       <c r="J129" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6066,10 +6076,10 @@
         <v>0</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6097,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6128,10 +6138,10 @@
         <v>0</v>
       </c>
       <c r="J132" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6159,10 +6169,10 @@
         <v>0</v>
       </c>
       <c r="J133" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6190,10 +6200,10 @@
         <v>0</v>
       </c>
       <c r="J134" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6221,10 +6231,10 @@
         <v>0</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6252,10 +6262,10 @@
         <v>0</v>
       </c>
       <c r="J136" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6283,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6314,10 +6324,10 @@
         <v>0</v>
       </c>
       <c r="J138" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6345,10 +6355,10 @@
         <v>0</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6376,10 +6386,10 @@
         <v>0</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6407,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6438,10 +6448,10 @@
         <v>0</v>
       </c>
       <c r="J142" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6469,10 +6479,10 @@
         <v>0</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -6500,10 +6510,10 @@
         <v>0</v>
       </c>
       <c r="J144" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6531,10 +6541,10 @@
         <v>0</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6562,10 +6572,10 @@
         <v>0</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -6593,10 +6603,10 @@
         <v>0</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6624,10 +6634,10 @@
         <v>0</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6655,10 +6665,10 @@
         <v>0</v>
       </c>
       <c r="J149" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -6686,10 +6696,10 @@
         <v>0</v>
       </c>
       <c r="J150" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6717,10 +6727,10 @@
         <v>0</v>
       </c>
       <c r="J151" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6748,21 +6758,21 @@
         <v>0</v>
       </c>
       <c r="J152" s="18" t="s">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D153" s="10" t="s">
         <v>351</v>
@@ -6772,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H153" s="8" t="b">
         <v>1</v>
@@ -6784,18 +6794,18 @@
         <v>141</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D154" s="10" t="s">
         <v>351</v>
@@ -6805,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H154" s="8" t="b">
         <v>1</v>
@@ -6817,18 +6827,18 @@
         <v>141</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D155" s="10" t="s">
         <v>351</v>
@@ -6838,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H155" s="8" t="b">
         <v>1</v>
@@ -6850,18 +6860,18 @@
         <v>141</v>
       </c>
       <c r="K155" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>351</v>
@@ -6871,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H156" s="8" t="b">
         <v>1</v>
@@ -6883,18 +6893,18 @@
         <v>141</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B157" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D157" s="10" t="s">
         <v>351</v>
@@ -6904,7 +6914,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H157" s="8" t="b">
         <v>0</v>
@@ -6918,13 +6928,13 @@
     </row>
     <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B158" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D158" s="10" t="s">
         <v>351</v>
@@ -6934,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H158" s="8" t="b">
         <v>0</v>
@@ -6948,13 +6958,13 @@
     </row>
     <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B159" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>351</v>
@@ -6964,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H159" s="8" t="b">
         <v>0</v>
@@ -6978,13 +6988,13 @@
     </row>
     <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B160" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>351</v>
@@ -6994,7 +7004,7 @@
         <v>0</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H160" s="8" t="b">
         <v>0</v>
@@ -7008,13 +7018,13 @@
     </row>
     <row r="161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>351</v>
@@ -7024,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H161" s="8" t="b">
         <v>0</v>
@@ -7038,13 +7048,13 @@
     </row>
     <row r="162" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>351</v>
@@ -7054,27 +7064,27 @@
         <v>0</v>
       </c>
       <c r="G162" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="H162" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="K162" s="8" t="s">
         <v>406</v>
-      </c>
-      <c r="H162" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K162" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B163" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>351</v>
@@ -7084,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H163" s="8" t="b">
         <v>0</v>
@@ -7093,18 +7103,18 @@
         <v>142</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B164" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>351</v>
@@ -7114,7 +7124,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H164" s="8" t="b">
         <v>0</v>
@@ -7123,12 +7133,12 @@
         <v>142</v>
       </c>
       <c r="K164" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B165" s="8" t="s">
         <v>60</v>
@@ -7144,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H165" s="8" t="b">
         <v>0</v>
@@ -7153,12 +7163,12 @@
         <v>142</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B166" s="8" t="s">
         <v>60</v>
@@ -7174,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H166" s="8" t="b">
         <v>0</v>
@@ -7183,18 +7193,18 @@
         <v>142</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B167" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D167" s="10" t="s">
         <v>351</v>
@@ -7204,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H167" s="8" t="b">
         <v>0</v>
@@ -7213,18 +7223,18 @@
         <v>142</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D168" s="10" t="s">
         <v>351</v>
@@ -7234,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H168" s="8" t="b">
         <v>0</v>
@@ -7243,18 +7253,18 @@
         <v>142</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D169" s="10" t="s">
         <v>351</v>
@@ -7264,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H169" s="8" t="b">
         <v>0</v>
@@ -7273,18 +7283,18 @@
         <v>142</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>351</v>
@@ -7294,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H170" s="8" t="b">
         <v>0</v>
@@ -7303,18 +7313,18 @@
         <v>142</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D171" s="10" t="s">
         <v>351</v>
@@ -7324,7 +7334,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H171" s="8" t="b">
         <v>0</v>
@@ -7333,18 +7343,18 @@
         <v>142</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B172" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D172" s="10" t="s">
         <v>351</v>
@@ -7354,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H172" s="8" t="b">
         <v>0</v>
@@ -7363,12 +7373,12 @@
         <v>142</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>60</v>
@@ -7384,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H173" s="8" t="b">
         <v>0</v>
@@ -7398,7 +7408,7 @@
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>60</v>
@@ -7414,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H174" s="8" t="b">
         <v>0</v>
@@ -7428,7 +7438,7 @@
     </row>
     <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>60</v>
@@ -7444,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H175" s="8" t="b">
         <v>0</v>
@@ -7458,7 +7468,7 @@
     </row>
     <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>60</v>
@@ -7474,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H176" s="8" t="b">
         <v>0</v>
@@ -7488,13 +7498,13 @@
     </row>
     <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>351</v>
@@ -7503,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H177" s="8" t="b">
         <v>0</v>
@@ -7517,13 +7527,13 @@
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>351</v>
@@ -7532,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H178" s="8" t="b">
         <v>0</v>
@@ -7546,13 +7556,13 @@
     </row>
     <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D179" s="10" t="s">
         <v>351</v>
@@ -7561,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H179" s="8" t="b">
         <v>0</v>
@@ -7575,13 +7585,13 @@
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D180" s="10" t="s">
         <v>351</v>
@@ -7590,7 +7600,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H180" s="8" t="b">
         <v>0</v>
@@ -7604,13 +7614,13 @@
     </row>
     <row r="181" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D181" s="10" t="s">
         <v>351</v>
@@ -7619,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H181" s="8" t="b">
         <v>0</v>
@@ -7633,13 +7643,13 @@
     </row>
     <row r="182" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D182" s="10" t="s">
         <v>351</v>
@@ -7648,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H182" s="8" t="b">
         <v>0</v>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C5F58D-5269-46B2-85FC-EC40111B8983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B6184-D0CB-4DD9-8494-41DCE02A5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="441">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -172,12 +172,6 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biitrns071:ver2.0:extended:urn:www.peppol.eu:bis:peppol36a:ver1.0::2.1</t>
-  </si>
-  <si>
-    <t>Deprecated?</t>
-  </si>
-  <si>
-    <t>Deprecated since</t>
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0::2.1</t>
@@ -1377,6 +1371,18 @@
   </si>
   <si>
     <t>Norwegian Payment</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>deprecated</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Deprecation version</t>
   </si>
 </sst>
 </file>
@@ -1926,9 +1932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1943,7 @@
     <col min="2" max="2" width="20.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
@@ -1949,37 +1955,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
+        <v>437</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1987,7 +1993,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
@@ -1995,9 +2001,8 @@
       <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E2" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F2" s="9">
         <v>2</v>
@@ -2010,10 +2015,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2021,7 +2026,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
@@ -2029,9 +2034,8 @@
       <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E3" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F3" s="9">
         <v>2</v>
@@ -2044,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2055,7 +2059,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>14</v>
@@ -2063,9 +2067,8 @@
       <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E4" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F4" s="9">
         <v>2</v>
@@ -2078,18 +2081,18 @@
         <v>1</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>22</v>
@@ -2097,9 +2100,8 @@
       <c r="D5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E5" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F5" s="9">
         <v>2</v>
@@ -2112,18 +2114,18 @@
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -2131,9 +2133,8 @@
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E6" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F6" s="9">
         <v>2</v>
@@ -2146,18 +2147,18 @@
         <v>1</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>1</v>
@@ -2165,9 +2166,8 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E7" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F7" s="9">
         <v>2</v>
@@ -2180,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2191,7 +2191,7 @@
         <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>32</v>
@@ -2199,9 +2199,8 @@
       <c r="D8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E8" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F8" s="9">
         <v>7</v>
@@ -2214,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2225,7 +2224,7 @@
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>15</v>
@@ -2233,9 +2232,8 @@
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E9" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F9" s="9">
         <v>2</v>
@@ -2248,34 +2246,33 @@
         <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E10" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F10" s="9">
         <v>3</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H10" s="8" t="b">
         <f>TRUE</f>
@@ -2285,10 +2282,10 @@
         <v>2</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2296,17 +2293,16 @@
         <v>30</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E11" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F11" s="9">
         <v>7</v>
@@ -2319,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2330,7 +2326,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -2338,9 +2334,8 @@
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E12" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F12" s="9">
         <v>2</v>
@@ -2353,10 +2348,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2364,7 +2359,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
@@ -2372,9 +2367,8 @@
       <c r="D13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E13" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F13" s="9">
         <v>7</v>
@@ -2387,18 +2381,18 @@
         <v>2</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>19</v>
@@ -2406,9 +2400,8 @@
       <c r="D14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E14" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -2421,18 +2414,18 @@
         <v>1</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>20</v>
@@ -2440,9 +2433,8 @@
       <c r="D15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E15" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F15" s="9">
         <v>2</v>
@@ -2455,18 +2447,18 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>21</v>
@@ -2474,9 +2466,8 @@
       <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E16" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F16" s="9">
         <v>2</v>
@@ -2489,18 +2480,18 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>33</v>
@@ -2508,9 +2499,8 @@
       <c r="D17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E17" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F17" s="9">
         <v>7</v>
@@ -2523,18 +2513,18 @@
         <v>2</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>34</v>
@@ -2542,9 +2532,8 @@
       <c r="D18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E18" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F18" s="9">
         <v>7</v>
@@ -2557,18 +2546,18 @@
         <v>2</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>3</v>
@@ -2576,9 +2565,8 @@
       <c r="D19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E19" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F19" s="9">
         <v>7</v>
@@ -2591,18 +2579,18 @@
         <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>10</v>
@@ -2610,9 +2598,8 @@
       <c r="D20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E20" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F20" s="9">
         <v>7</v>
@@ -2625,18 +2612,18 @@
         <v>1</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>11</v>
@@ -2644,9 +2631,8 @@
       <c r="D21" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E21" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F21" s="9">
         <v>7</v>
@@ -2659,18 +2645,18 @@
         <v>1</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>4</v>
@@ -2678,9 +2664,8 @@
       <c r="D22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E22" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F22" s="9">
         <v>7</v>
@@ -2693,18 +2678,18 @@
         <v>1</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>5</v>
@@ -2712,9 +2697,8 @@
       <c r="D23" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E23" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F23" s="9">
         <v>7</v>
@@ -2727,18 +2711,18 @@
         <v>1</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>6</v>
@@ -2746,9 +2730,8 @@
       <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E24" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F24" s="9">
         <v>7</v>
@@ -2761,10 +2744,10 @@
         <v>1</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2772,7 +2755,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>23</v>
@@ -2780,9 +2763,8 @@
       <c r="D25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E25" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F25" s="9">
         <v>2</v>
@@ -2792,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2803,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -2811,27 +2793,26 @@
       <c r="D26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E26" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H26" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>38</v>
@@ -2839,9 +2820,8 @@
       <c r="D27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E27" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F27" s="9">
         <v>7</v>
@@ -2854,18 +2834,18 @@
         <v>1</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>39</v>
@@ -2873,14 +2853,14 @@
       <c r="D28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="8" t="b">
-        <v>1</v>
+      <c r="E28" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F28" s="9">
         <v>3</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H28" s="8" t="b">
         <f>TRUE</f>
@@ -2890,28 +2870,27 @@
         <v>1</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29" s="10">
         <v>3</v>
       </c>
-      <c r="E29" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E29" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F29" s="9">
         <v>7</v>
@@ -2924,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2935,7 +2914,7 @@
         <v>40</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>42</v>
@@ -2943,9 +2922,8 @@
       <c r="D30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E30" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F30" s="9">
         <v>7</v>
@@ -2958,10 +2936,10 @@
         <v>1</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2969,7 +2947,7 @@
         <v>41</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>43</v>
@@ -2977,9 +2955,8 @@
       <c r="D31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E31" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F31" s="9">
         <v>7</v>
@@ -2992,28 +2969,27 @@
         <v>1</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="7">
         <v>2</v>
       </c>
-      <c r="E32" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E32" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H32" s="8" t="b">
         <f>TRUE</f>
@@ -3023,28 +2999,27 @@
         <v>3</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="7">
         <v>2</v>
       </c>
-      <c r="E33" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E33" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H33" s="8" t="b">
         <f>TRUE</f>
@@ -3054,121 +3029,117 @@
         <v>3</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34" s="10">
         <v>3</v>
       </c>
-      <c r="E34" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E34" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H34" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
       </c>
-      <c r="E35" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E35" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H35" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H36" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="7">
         <v>3</v>
       </c>
-      <c r="E37" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E37" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H37" s="8" t="b">
         <f>TRUE</f>
@@ -3178,28 +3149,27 @@
         <v>3</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E38" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H38" s="8" t="b">
         <f>TRUE</f>
@@ -3209,28 +3179,27 @@
         <v>1</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" s="7">
         <v>3</v>
       </c>
-      <c r="E39" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E39" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H39" s="8" t="b">
         <f>TRUE</f>
@@ -3240,28 +3209,27 @@
         <v>1</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E40" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H40" s="8" t="b">
         <f>TRUE</f>
@@ -3271,28 +3239,27 @@
         <v>1</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" s="7">
         <v>3</v>
       </c>
-      <c r="E41" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E41" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H41" s="8" t="b">
         <f>TRUE</f>
@@ -3302,28 +3269,27 @@
         <v>1</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
       </c>
-      <c r="E42" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E42" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H42" s="8" t="b">
         <f>TRUE</f>
@@ -3333,28 +3299,27 @@
         <v>1</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" s="7">
         <v>3</v>
       </c>
-      <c r="E43" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E43" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H43" s="8" t="b">
         <f>TRUE</f>
@@ -3364,27 +3329,27 @@
         <v>1</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="8" t="b">
-        <v>1</v>
+      <c r="E44" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F44" s="9">
         <v>5</v>
@@ -3394,27 +3359,27 @@
         <v>0</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>62</v>
       </c>
       <c r="D45" s="7">
         <v>3</v>
       </c>
-      <c r="E45" s="8" t="b">
-        <v>1</v>
+      <c r="E45" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F45" s="9">
         <v>5</v>
@@ -3424,27 +3389,27 @@
         <v>0</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D46" s="7">
         <v>3</v>
       </c>
-      <c r="E46" s="8" t="b">
-        <v>1</v>
+      <c r="E46" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F46" s="9">
         <v>5</v>
@@ -3454,140 +3419,135 @@
         <v>0</v>
       </c>
       <c r="J46" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D47" s="7">
         <v>3</v>
       </c>
-      <c r="E47" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E47" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H47" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D48" s="7">
         <v>3</v>
       </c>
-      <c r="E48" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E48" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H48" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="D49" s="7">
         <v>3</v>
       </c>
-      <c r="E49" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E49" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H49" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D50" s="7">
         <v>3</v>
       </c>
-      <c r="E50" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E50" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H50" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" s="7">
         <v>4</v>
       </c>
-      <c r="E51" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E51" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F51" s="9">
         <v>7</v>
@@ -3600,28 +3560,27 @@
         <v>1</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
       </c>
-      <c r="E52" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E52" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H52" s="8" t="b">
         <f>TRUE</f>
@@ -3631,28 +3590,27 @@
         <v>3</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D53" s="7">
         <v>4</v>
       </c>
-      <c r="E53" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E53" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H53" s="8" t="b">
         <f>TRUE</f>
@@ -3662,28 +3620,27 @@
         <v>3</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
       </c>
-      <c r="E54" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E54" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H54" s="8" t="b">
         <f>TRUE</f>
@@ -3693,28 +3650,27 @@
         <v>3</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D55" s="7">
         <v>4</v>
       </c>
-      <c r="E55" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E55" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H55" s="8" t="b">
         <f>TRUE</f>
@@ -3724,28 +3680,27 @@
         <v>3</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D56" s="7">
         <v>4</v>
       </c>
-      <c r="E56" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E56" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H56" s="8" t="b">
         <f>TRUE</f>
@@ -3755,28 +3710,27 @@
         <v>3</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D57" s="7">
         <v>4</v>
       </c>
-      <c r="E57" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E57" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H57" s="8" t="b">
         <f>TRUE</f>
@@ -3786,28 +3740,27 @@
         <v>3</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D58" s="7">
         <v>4</v>
       </c>
-      <c r="E58" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E58" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H58" s="8" t="b">
         <f>TRUE</f>
@@ -3817,28 +3770,27 @@
         <v>3</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D59" s="7">
         <v>4</v>
       </c>
-      <c r="E59" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E59" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H59" s="8" t="b">
         <f>TRUE</f>
@@ -3848,28 +3800,27 @@
         <v>3</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D60" s="7">
         <v>4</v>
       </c>
-      <c r="E60" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E60" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H60" s="8" t="b">
         <f>TRUE</f>
@@ -3879,84 +3830,81 @@
         <v>3</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D61" s="7">
         <v>4</v>
       </c>
-      <c r="E61" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E61" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H61" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D62" s="7">
         <v>4</v>
       </c>
-      <c r="E62" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E62" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H62" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D63" s="7">
         <v>4</v>
       </c>
-      <c r="E63" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E63" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H63" s="8" t="b">
         <f>TRUE</f>
@@ -3966,34 +3914,33 @@
         <v>3</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D64" s="7">
         <v>4</v>
       </c>
-      <c r="E64" s="8" t="b">
-        <f>TRUE</f>
-        <v>1</v>
+      <c r="E64" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F64" s="9">
         <v>6</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H64" s="8" t="b">
         <f>TRUE</f>
@@ -4003,28 +3950,27 @@
         <v>3</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="7">
         <v>6</v>
       </c>
-      <c r="E65" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E65" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="H65" s="8" t="b">
         <f>TRUE</f>
@@ -4034,217 +3980,210 @@
         <v>3</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D66" s="7">
         <v>5</v>
       </c>
-      <c r="E66" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E66" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H66" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D67" s="7">
         <v>5</v>
       </c>
-      <c r="E67" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E67" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H67" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D68" s="7">
         <v>5</v>
       </c>
-      <c r="E68" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E68" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H68" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D69" s="7">
         <v>6</v>
       </c>
-      <c r="E69" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E69" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H69" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D70" s="7">
         <v>6</v>
       </c>
-      <c r="E70" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E70" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H70" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D71" s="7">
         <v>6</v>
       </c>
-      <c r="E71" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E71" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H71" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="D72" s="7">
         <v>6</v>
       </c>
-      <c r="E72" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E72" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H72" s="8" t="b">
         <f>TRUE</f>
@@ -4254,31 +4193,30 @@
         <v>3</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D73" s="7">
         <v>6</v>
       </c>
-      <c r="E73" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E73" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H73" s="8" t="b">
         <f>TRUE</f>
@@ -4288,2501 +4226,2433 @@
         <v>3</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="7">
         <v>6</v>
       </c>
-      <c r="E74" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E74" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H74" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" s="7">
         <v>6</v>
       </c>
-      <c r="E75" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E75" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H75" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D76" s="7">
         <v>6</v>
       </c>
-      <c r="E76" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E76" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H76" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D77" s="7">
         <v>6</v>
       </c>
-      <c r="E77" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E77" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H77" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D78" s="7">
         <v>7</v>
       </c>
-      <c r="E78" s="8" t="b">
-        <v>1</v>
+      <c r="E78" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F78" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H78" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D79" s="7">
         <v>7</v>
       </c>
-      <c r="E79" s="8" t="b">
-        <v>1</v>
+      <c r="E79" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H79" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D80" s="7">
         <v>7</v>
       </c>
-      <c r="E80" s="8" t="b">
-        <v>1</v>
+      <c r="E80" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H80" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D81" s="7">
         <v>7</v>
       </c>
-      <c r="E81" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E81" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H81" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D82" s="7">
         <v>7</v>
       </c>
-      <c r="E82" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E82" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H82" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D83" s="7">
         <v>7</v>
       </c>
-      <c r="E83" s="8" t="b">
-        <v>1</v>
+      <c r="E83" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H83" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D84" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E84" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>277</v>
-      </c>
       <c r="H84" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D85" s="7">
         <v>7</v>
       </c>
-      <c r="E85" s="8" t="b">
-        <v>1</v>
+      <c r="E85" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H85" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D86" s="7">
         <v>7</v>
       </c>
-      <c r="E86" s="8" t="b">
-        <v>1</v>
+      <c r="E86" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H86" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D87" s="7">
         <v>7</v>
       </c>
-      <c r="E87" s="8" t="b">
-        <v>1</v>
+      <c r="E87" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H87" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D88" s="7">
         <v>7</v>
       </c>
-      <c r="E88" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E88" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H88" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D89" s="7">
         <v>7</v>
       </c>
-      <c r="E89" s="8" t="b">
-        <v>1</v>
+      <c r="E89" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H89" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D90" s="7">
         <v>7</v>
       </c>
-      <c r="E90" s="8" t="b">
-        <v>1</v>
+      <c r="E90" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H90" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D91" s="7">
         <v>7</v>
       </c>
-      <c r="E91" s="8" t="b">
-        <v>1</v>
+      <c r="E91" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H91" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D92" s="7">
         <v>7</v>
       </c>
-      <c r="E92" s="8" t="b">
-        <v>1</v>
+      <c r="E92" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H92" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D93" s="7">
         <v>7</v>
       </c>
-      <c r="E93" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E93" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H93" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D94" s="7">
         <v>7</v>
       </c>
-      <c r="E94" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E94" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H94" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D95" s="7">
         <v>7</v>
       </c>
-      <c r="E95" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E95" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H95" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E96" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H96" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J96" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G97" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D97" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E97" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="H97" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J97" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E98" s="8" t="b">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>438</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H98" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J98" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E99" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H99" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J99" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E100" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H100" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J100" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="E101" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>234</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H101" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J101" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G102" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C102" s="15" t="s">
+      <c r="H102" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K102" s="17" t="s">
         <v>256</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="E102" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H102" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K102" s="17" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C103" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H103" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="8" t="s">
         <v>261</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E103" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="H103" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K103" s="8" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E104" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H104" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J104" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E105" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H105" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J105" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H106" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K106" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="B106" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E106" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="H106" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J106" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E107" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>258</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H107" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J107" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D108" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H108" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K108" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E108" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G108" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H108" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J108" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K108" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D109" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H109" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K109" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E109" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G109" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H109" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K109" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D110" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H110" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K110" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E110" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H110" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K110" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D111" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H111" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K111" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E111" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H111" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K111" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D112" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H112" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K112" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E112" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G112" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H112" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K112" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H113" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K113" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E113" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H113" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K113" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D114" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H114" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K114" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E114" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H114" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D115" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H115" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K115" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E115" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H115" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D116" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H116" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="E116" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G116" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="H116" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E117" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G117" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H117" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K117" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H117" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K117" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E118" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G118" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H118" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K118" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H118" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K118" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E119" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G119" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H119" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K119" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H119" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K119" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E120" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G120" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H120" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K120" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H120" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K120" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E121" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G121" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H121" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K121" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H121" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K121" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E122" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G122" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H122" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K122" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H122" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K122" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E123" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G123" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H123" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K123" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H123" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K123" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E124" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G124" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H124" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K124" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H124" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K124" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E125" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G125" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="H125" s="8" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="K125" s="8" t="s">
         <v>352</v>
-      </c>
-      <c r="H125" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="K125" s="8" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E126" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H126" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E127" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H127" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E128" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H128" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E129" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H129" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J129" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E130" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H130" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J130" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E131" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H131" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J131" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E132" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H132" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J132" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="133" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E133" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H133" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J133" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="134" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E134" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H134" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J134" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E135" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H135" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J135" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E136" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H136" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J136" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E137" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H137" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J137" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E138" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H138" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J138" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E139" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H139" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J139" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E140" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H140" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K140" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E141" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H141" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J141" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K141" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="142" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E142" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H142" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J142" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K142" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E143" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G143" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H143" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J143" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K143" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="144" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E144" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H144" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J144" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K144" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="145" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E145" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H145" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J145" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="146" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B146" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E146" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H146" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J146" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E147" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H147" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J147" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="148" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E148" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H148" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J148" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E149" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H149" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J149" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E150" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H150" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J150" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="151" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E151" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G151" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H151" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J151" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K151" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B152" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G152" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E152" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>352</v>
-      </c>
       <c r="H152" s="8" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="J152" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E153" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G153" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H153" s="8" t="b">
         <v>1</v>
@@ -6791,31 +6661,30 @@
         <v>1</v>
       </c>
       <c r="J153" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K153" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E154" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H154" s="8" t="b">
         <v>1</v>
@@ -6824,850 +6693,828 @@
         <v>1</v>
       </c>
       <c r="J154" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C155" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D155" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G155" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D155" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E155" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G155" s="8" t="s">
+      <c r="H155" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" s="8">
+        <v>1</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K155" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="H155" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I155" s="8">
-        <v>1</v>
-      </c>
-      <c r="J155" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K155" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E156" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G156" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="H156" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" s="8">
+        <v>1</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K156" s="8" t="s">
         <v>368</v>
-      </c>
-      <c r="H156" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I156" s="8">
-        <v>1</v>
-      </c>
-      <c r="J156" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K156" s="8" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="157" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E157" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H157" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E158" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G158" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H158" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J158" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="159" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E159" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H159" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J159" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E160" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H160" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J160" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E161" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H161" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J161" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E162" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G162" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H162" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K162" s="8" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E163" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G163" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H163" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K163" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="H163" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K163" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="164" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E164" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G164" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="H164" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K164" s="8" t="s">
         <v>405</v>
-      </c>
-      <c r="H164" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J164" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="K164" s="8" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="165" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E165" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H165" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E166" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H166" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J166" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K166" s="8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="167" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E167" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H167" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J167" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K167" s="8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="168" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E168" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H168" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J168" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="169" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E169" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H169" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J169" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="170" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E170" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H170" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J170" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C171" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="D171" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G171" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D171" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E171" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="G171" s="8" t="s">
-        <v>405</v>
-      </c>
       <c r="H171" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J171" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K171" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E172" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G172" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H172" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J172" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K172" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E173" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H173" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J173" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="174" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E174" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H174" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J174" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E175" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G175" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H175" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J175" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K175" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="176" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E176" s="8" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G176" s="8" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H176" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J176" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K176" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E177" s="8" t="b">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G177" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H177" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J177" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K177" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C178" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G178" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D178" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E178" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" s="8" t="s">
-        <v>429</v>
-      </c>
       <c r="H178" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J178" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K178" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E179" s="8" t="b">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H179" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J179" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K179" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="180" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E180" s="8" t="b">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G180" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H180" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J180" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K180" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="181" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C181" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G181" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="D181" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E181" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>436</v>
-      </c>
       <c r="H181" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J181" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K181" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="E182" s="8" t="b">
-        <v>0</v>
+        <v>349</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H182" s="8" t="b">
         <v>0</v>
       </c>
       <c r="J182" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K182" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784B6184-D0CB-4DD9-8494-41DCE02A5FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A14EEE-28F3-4212-BCE5-AF7CDC850D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="451">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1383,6 +1383,36 @@
   </si>
   <si>
     <t>Deprecation version</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0#extended#urn:fdc:www.efaktura.gov.pl:ver2.0::2.1</t>
+  </si>
+  <si>
+    <t>TICC-195</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:www.efaktura.gov.pl:ver2.0:corr_inv:ver4.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:www.efaktura.gov.pl:ver2.0:plinv:ver1.4</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:www.efaktura.gov.pl:ver2.0:sbcn:ver1.4</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0#extended#urn:fdc:www.efaktura.gov.pl:ver2.0::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:SelfBilledCreditNote-2::SelfBilledCreditNote##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0#extended#urn:fdc:www.efaktura.gov.pl:ver2.0::2.1</t>
+  </si>
+  <si>
+    <t>PL Faktura specjalizowana ver. 1.4</t>
+  </si>
+  <si>
+    <t>PL Faktura korygująca ver. 4.0</t>
+  </si>
+  <si>
+    <t>PL Nota korygująca ver. 1.4</t>
   </si>
 </sst>
 </file>
@@ -1930,11 +1960,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7517,6 +7547,93 @@
         <v>156</v>
       </c>
     </row>
+    <row r="183" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D183" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H183" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K183" s="8" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D184" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H184" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J184" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D185" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="H185" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K185" s="8" t="s">
+        <v>445</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A14EEE-28F3-4212-BCE5-AF7CDC850D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87C62EE-BA2D-40CC-A90C-74D72A6D4F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$K$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$K$202</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="495">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1413,6 +1413,138 @@
   </si>
   <si>
     <t>PL Nota korygująca ver. 1.4</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ExpressionOfInterestRequest-2::ExpressionOfInterestRequest##urn:fdc:peppol.eu:prac:trns:t001:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ExpressionOfInterestResponse-2::ExpressionOfInterestResponse##urn:fdc:peppol.eu:prac:trns:t002:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderStatusRequest-2::TenderStatusRequest##urn:fdc:peppol.eu:prac:trns:t003:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CallForTenders-2::CallForTenders##urn:fdc:peppol.eu:prac:trns:t004:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Tender-2::Tender##urn:fdc:peppol.eu:prac:trns:t005:1.1::2.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderReceipt-2::TenderReceipt##urn:fdc:peppol.eu:prac:trns:t006:1.1::2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t007:1.1::2.2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:EnquiryResponse-2::EnquiryResponse##urn:fdc:peppol.eu:prac:trns:t008:1.1::2.2             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:Enquiry-2::Enquiry##urn:fdc:peppol.eu:prac:trns:t009:1.1::2.2             </t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:EnquiryResponse-2::EnquiryResponse##urn:fdc:peppol.eu:prac:trns:t010:1.1::2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:tc:ebxml-regrep:xsd:query:4.0::QueryRequest##urn:fdc:peppol.eu:prac:trns:t011:1.1::4.0             </t>
+  </si>
+  <si>
+    <t>urn:oasis:names:tc:ebxml-regrep:xsd:query:4.0::QueryResponse##urn:fdc:peppol.eu:prac:trns:t012:1.1::4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:TenderWithdrawal-2::TenderWithdrawal##urn:fdc:peppol.eu:prac:trns:t013:1.1::2.2             </t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TenderReceipt-2::TenderReceipt##urn:fdc:peppol.eu:prac:trns:t014:1.1::2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:tc:ebxml-regrep:xsd:lcm:4.0::SubmitObjectsRequest##urn:fdc:peppol.eu:prac:trns:t015:1.1::4.0             </t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:prac:trns:t016:1.1::2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urn:oasis:names:specification:ubl:schema:xsd:AwardedNotification-2::AwardedNotification##urn:fdc:peppol.eu:prac:trns:t017:1.4::2.2             </t>
+  </si>
+  <si>
+    <t>TICC-199</t>
+  </si>
+  <si>
+    <t>Procurement procedure subscription / Subscribe to Procedure V1.1</t>
+  </si>
+  <si>
+    <t>Procurement procedure subscription / Subscribe to Procedure Confirmation V1.1</t>
+  </si>
+  <si>
+    <t>Procurement document access / Tender Status Inquiry V1.1</t>
+  </si>
+  <si>
+    <t>Procurement document access / Call for Tenders V1.1</t>
+  </si>
+  <si>
+    <t>Tender Submission / Tender V1.1</t>
+  </si>
+  <si>
+    <t>Tender Submission / Tender Tender Reception Notification V1.1</t>
+  </si>
+  <si>
+    <t>Call for Tender Question and Answers / Tendering Questions V1.1</t>
+  </si>
+  <si>
+    <t>Call for Tender Question and Answers / Tendering Answers V1.1</t>
+  </si>
+  <si>
+    <t>Tender Clarification / Tender Clarification Request V1.1</t>
+  </si>
+  <si>
+    <t>Tender Clarification / Tender Clarification V1.1</t>
+  </si>
+  <si>
+    <t>Search Notices / Search Notice Request V1.1</t>
+  </si>
+  <si>
+    <t>Search Notices / Search Notice Response V1.1</t>
+  </si>
+  <si>
+    <t>Tender Withdrawal / Tender Withdrawal V1.1</t>
+  </si>
+  <si>
+    <t>Tender Withdrawal / Tender Withdrawal Notification V1.1</t>
+  </si>
+  <si>
+    <t>Notify Awarding / Awarding Notification V1.1</t>
+  </si>
+  <si>
+    <t>Publish Notice / Notice Publication Response V1.1</t>
+  </si>
+  <si>
+    <t>Publish Notice / Publish Notice V1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p001:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p002:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p003:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p004:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p005:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p006:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p007:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p008:1.1</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:prac:bis:p009:1.1</t>
   </si>
 </sst>
 </file>
@@ -1960,11 +2092,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K185"/>
+  <dimension ref="A1:K202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K203" sqref="K203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,7 +2483,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>26</v>
       </c>
@@ -2417,7 +2549,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>124</v>
       </c>
@@ -2483,7 +2615,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>124</v>
       </c>
@@ -2681,7 +2813,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>121</v>
       </c>
@@ -2747,7 +2879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>121</v>
       </c>
@@ -7634,8 +7766,501 @@
         <v>445</v>
       </c>
     </row>
+    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D186" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G186" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H186" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K186" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G187" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H187" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K187" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G188" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H188" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J188" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K188" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="D189" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G189" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H189" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K189" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D190" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G190" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H190" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K190" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H191" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K191" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H192" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K192" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="D193" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H193" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J193" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K193" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D194" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H194" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H195" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H196" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J196" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K196" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H197" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H198" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H199" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H200" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J200" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H201" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D202" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H202" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K202" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733CCB42-0B76-43B5-8FA4-0E1BBFDF3BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E2B730-0EA3-483A-BB78-6CC1A72EC350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="3915" windowWidth="37935" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="500">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:OrderResponse-2::OrderResponse##urn:www.cenbii.eu:transaction:biitrns076:ver2.0:extended:urn:www.peppol.eu:bis:peppol28a:ver1.0::2.1</t>
-  </si>
-  <si>
-    <t>Typo in name!</t>
   </si>
   <si>
     <t>urn:un:unece:uncefact:data:standard:CrossIndustryInvoice:100::CrossIndustryInvoice##urn:cen.eu:en16931:2017#compliant#urn:fdc:peppol.eu:2017:poacc:billing:3.0::D16B</t>
@@ -1548,6 +1545,22 @@
   </si>
   <si>
     <t>Initial release</t>
+  </si>
+  <si>
+    <t>PEPPOL-1859
+Typo in name!</t>
+  </si>
+  <si>
+    <t>PEPPOL-1859</t>
+  </si>
+  <si>
+    <t>TICC-55</t>
+  </si>
+  <si>
+    <t>TICC-37</t>
+  </si>
+  <si>
+    <t>TICC-54</t>
   </si>
 </sst>
 </file>
@@ -2107,8 +2120,8 @@
   <dimension ref="A1:L202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2130,40 +2143,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>493</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>495</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2171,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2180,7 +2193,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -2193,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2204,7 +2217,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -2213,7 +2226,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
@@ -2226,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2237,7 +2250,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>14</v>
@@ -2246,7 +2259,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
@@ -2259,18 +2272,18 @@
         <v>1</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>21</v>
@@ -2279,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7">
         <v>2</v>
@@ -2292,18 +2305,18 @@
         <v>1</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>0</v>
@@ -2312,7 +2325,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -2325,18 +2338,18 @@
         <v>1</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
@@ -2345,7 +2358,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
@@ -2358,10 +2371,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2369,7 +2382,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
@@ -2378,7 +2391,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F8" s="7">
         <v>7</v>
@@ -2391,10 +2404,10 @@
         <v>1</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2402,7 +2415,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>15</v>
@@ -2411,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -2424,33 +2437,33 @@
         <v>1</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I10" s="6" t="b">
         <f>TRUE</f>
@@ -2460,10 +2473,10 @@
         <v>2</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2471,16 +2484,16 @@
         <v>29</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F11" s="7">
         <v>7</v>
@@ -2493,10 +2506,10 @@
         <v>2</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -2504,7 +2517,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>2</v>
@@ -2513,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -2526,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2537,7 +2550,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>30</v>
@@ -2546,7 +2559,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7">
         <v>7</v>
@@ -2559,18 +2572,18 @@
         <v>2</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -2579,7 +2592,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -2592,18 +2605,18 @@
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -2612,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
@@ -2625,18 +2638,18 @@
         <v>1</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -2645,7 +2658,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F16" s="7">
         <v>2</v>
@@ -2658,18 +2671,18 @@
         <v>1</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>32</v>
@@ -2678,7 +2691,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F17" s="7">
         <v>7</v>
@@ -2691,18 +2704,18 @@
         <v>2</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>33</v>
@@ -2711,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7">
         <v>7</v>
@@ -2724,18 +2737,18 @@
         <v>2</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>3</v>
@@ -2744,7 +2757,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F19" s="7">
         <v>7</v>
@@ -2757,18 +2770,18 @@
         <v>1</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
@@ -2777,7 +2790,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7">
         <v>7</v>
@@ -2790,18 +2803,18 @@
         <v>1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
@@ -2810,7 +2823,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F21" s="7">
         <v>7</v>
@@ -2823,18 +2836,18 @@
         <v>1</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>4</v>
@@ -2843,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7">
         <v>7</v>
@@ -2856,18 +2869,18 @@
         <v>1</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -2876,7 +2889,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7">
         <v>7</v>
@@ -2889,18 +2902,18 @@
         <v>1</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>6</v>
@@ -2909,7 +2922,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7">
         <v>7</v>
@@ -2922,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2933,7 +2946,7 @@
         <v>34</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>22</v>
@@ -2942,7 +2955,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7">
         <v>2</v>
@@ -2952,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -2963,7 +2976,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>24</v>
@@ -2972,25 +2985,25 @@
         <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I26" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>37</v>
@@ -2999,7 +3012,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F27" s="7">
         <v>7</v>
@@ -3012,18 +3025,18 @@
         <v>1</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>38</v>
@@ -3032,13 +3045,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F28" s="7">
         <v>3</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I28" s="6" t="b">
         <f>TRUE</f>
@@ -3048,18 +3061,18 @@
         <v>1</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>47</v>
@@ -3068,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7">
         <v>7</v>
@@ -3081,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3092,7 +3105,7 @@
         <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>41</v>
@@ -3101,7 +3114,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F30" s="7">
         <v>7</v>
@@ -3114,10 +3127,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3125,7 +3138,7 @@
         <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>42</v>
@@ -3134,7 +3147,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F31" s="7">
         <v>7</v>
@@ -3147,18 +3160,18 @@
         <v>1</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>43</v>
@@ -3167,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I32" s="6" t="b">
         <f>TRUE</f>
@@ -3177,18 +3190,18 @@
         <v>3</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>44</v>
@@ -3197,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I33" s="6" t="b">
         <f>TRUE</f>
@@ -3207,18 +3220,18 @@
         <v>3</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>45</v>
@@ -3227,25 +3240,25 @@
         <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I34" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>46</v>
@@ -3254,70 +3267,70 @@
         <v>3</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I35" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I36" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I37" s="6" t="b">
         <f>TRUE</f>
@@ -3327,27 +3340,27 @@
         <v>3</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="5">
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I38" s="6" t="b">
         <f>TRUE</f>
@@ -3357,27 +3370,27 @@
         <v>1</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5">
         <v>3</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I39" s="6" t="b">
         <f>TRUE</f>
@@ -3387,27 +3400,27 @@
         <v>1</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" s="5">
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I40" s="6" t="b">
         <f>TRUE</f>
@@ -3417,27 +3430,27 @@
         <v>1</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" s="5">
         <v>3</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I41" s="6" t="b">
         <f>TRUE</f>
@@ -3447,27 +3460,27 @@
         <v>1</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="5">
         <v>3</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I42" s="6" t="b">
         <f>TRUE</f>
@@ -3477,27 +3490,27 @@
         <v>1</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="5">
         <v>3</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I43" s="6" t="b">
         <f>TRUE</f>
@@ -3507,225 +3520,246 @@
         <v>1</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="D44" s="5">
         <v>3</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F44" s="7">
         <v>5</v>
       </c>
+      <c r="H44" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="I44" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="5">
         <v>3</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F45" s="7">
         <v>5</v>
       </c>
+      <c r="H45" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="I45" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="5">
         <v>3</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F46" s="7">
         <v>5</v>
       </c>
+      <c r="H46" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="I46" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="5">
         <v>3</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="I47" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="5">
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="I48" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="5">
         <v>3</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="I49" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D50" s="5">
         <v>3</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="I50" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="5">
         <v>4</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F51" s="7">
         <v>7</v>
@@ -3738,27 +3772,27 @@
         <v>1</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="5">
         <v>4</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I52" s="6" t="b">
         <f>TRUE</f>
@@ -3768,27 +3802,27 @@
         <v>3</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D53" s="5">
         <v>4</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I53" s="6" t="b">
         <f>TRUE</f>
@@ -3798,27 +3832,27 @@
         <v>3</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="5">
         <v>4</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I54" s="6" t="b">
         <f>TRUE</f>
@@ -3828,27 +3862,27 @@
         <v>3</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D55" s="5">
         <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I55" s="6" t="b">
         <f>TRUE</f>
@@ -3858,27 +3892,27 @@
         <v>3</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D56" s="5">
         <v>4</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I56" s="6" t="b">
         <f>TRUE</f>
@@ -3888,27 +3922,27 @@
         <v>3</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="5">
         <v>4</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I57" s="6" t="b">
         <f>TRUE</f>
@@ -3918,27 +3952,27 @@
         <v>3</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="5">
         <v>4</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I58" s="6" t="b">
         <f>TRUE</f>
@@ -3948,27 +3982,27 @@
         <v>3</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D59" s="5">
         <v>4</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I59" s="6" t="b">
         <f>TRUE</f>
@@ -3978,27 +4012,27 @@
         <v>3</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D60" s="5">
         <v>4</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I60" s="6" t="b">
         <f>TRUE</f>
@@ -4008,81 +4042,81 @@
         <v>3</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D61" s="5">
         <v>4</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I61" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D62" s="5">
         <v>4</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I62" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D63" s="5">
         <v>4</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I63" s="6" t="b">
         <f>TRUE</f>
@@ -4092,33 +4126,33 @@
         <v>3</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="5">
         <v>4</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F64" s="7">
         <v>6</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>48</v>
+        <v>495</v>
       </c>
       <c r="I64" s="6" t="b">
         <f>TRUE</f>
@@ -4128,27 +4162,30 @@
         <v>3</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="5">
         <v>6</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>496</v>
       </c>
       <c r="I65" s="6" t="b">
         <f>TRUE</f>
@@ -4158,210 +4195,210 @@
         <v>3</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D66" s="5">
         <v>5</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I66" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D67" s="5">
         <v>5</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I67" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K67" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="5">
         <v>5</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I68" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="5">
         <v>6</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I69" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="D70" s="5">
         <v>6</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I70" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" s="5">
         <v>6</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I71" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D72" s="5">
         <v>6</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I72" s="6" t="b">
         <f>TRUE</f>
@@ -4371,30 +4408,30 @@
         <v>3</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="5">
         <v>6</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I73" s="6" t="b">
         <f>TRUE</f>
@@ -4404,2509 +4441,2509 @@
         <v>3</v>
       </c>
       <c r="K73" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D74" s="5">
         <v>6</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I74" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K74" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D75" s="5">
         <v>6</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I75" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="D76" s="5">
         <v>6</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I76" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D77" s="5">
         <v>6</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I77" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K77" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="5">
         <v>7</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G78" s="22"/>
       <c r="H78" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I78" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D79" s="5">
         <v>7</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G79" s="22"/>
       <c r="H79" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I79" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D80" s="5">
         <v>7</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G80" s="22"/>
       <c r="H80" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I80" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L80" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D81" s="5">
         <v>7</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I81" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D82" s="5">
         <v>7</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I82" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D83" s="5">
         <v>7</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G83" s="22"/>
       <c r="H83" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I83" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="E84" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I84" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" s="5">
         <v>7</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G85" s="22"/>
       <c r="H85" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I85" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" s="5">
         <v>7</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G86" s="22"/>
       <c r="H86" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I86" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" s="5">
         <v>7</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I87" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" s="5">
         <v>7</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I88" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D89" s="5">
         <v>7</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G89" s="22"/>
       <c r="H89" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I89" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D90" s="5">
         <v>7</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G90" s="22"/>
       <c r="H90" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I90" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D91" s="5">
         <v>7</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G91" s="22"/>
       <c r="H91" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I91" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D92" s="5">
         <v>7</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G92" s="22"/>
       <c r="H92" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I92" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D93" s="5">
         <v>7</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I93" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D94" s="5">
         <v>7</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I94" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D95" s="5">
         <v>7</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I95" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>233</v>
-      </c>
       <c r="E96" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I96" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I97" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I98" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K98" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="E99" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>274</v>
-      </c>
       <c r="I99" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I100" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I101" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C102" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C102" s="13" t="s">
+      <c r="D102" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H102" s="6" t="s">
+      <c r="I102" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L102" s="15" t="s">
         <v>254</v>
-      </c>
-      <c r="I102" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L102" s="15" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H103" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H103" s="6" t="s">
+      <c r="I103" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="I103" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I104" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I105" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I106" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="I107" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L107" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H107" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="I107" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L107" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D108" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H108" s="6" t="s">
+      <c r="I108" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L108" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I108" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K108" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L108" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D109" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H109" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E109" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H109" s="6" t="s">
+      <c r="I109" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L109" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I109" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K109" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D110" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H110" s="6" t="s">
+      <c r="I110" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L110" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I110" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K110" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D111" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H111" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H111" s="6" t="s">
+      <c r="I111" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L111" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I111" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K111" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L111" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D112" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H112" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H112" s="6" t="s">
+      <c r="I112" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L112" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I112" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K112" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D113" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H113" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H113" s="6" t="s">
+      <c r="I113" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L113" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I113" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K113" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D114" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H114" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H114" s="6" t="s">
+      <c r="I114" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L114" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I114" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L114" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D115" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H115" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E115" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H115" s="6" t="s">
+      <c r="I115" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L115" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I115" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K115" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L115" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D116" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H116" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H116" s="6" t="s">
+      <c r="I116" s="6" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="L116" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="I116" s="6" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="K116" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="L116" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H117" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H117" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I117" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E118" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H118" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I118" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D119" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H119" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I119" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K119" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D120" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H120" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H120" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I120" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D121" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I121" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D122" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H122" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I122" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H123" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I123" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H124" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I124" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H125" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E125" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I125" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D126" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E126" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H126" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H126" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I126" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D127" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H127" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H127" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I127" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K127" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D128" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H128" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I128" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K128" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D129" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H129" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E129" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H129" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I129" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D130" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H130" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E130" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H130" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I130" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K130" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H131" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E131" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I131" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K131" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D132" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H132" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E132" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H132" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I132" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K132" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H133" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E133" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H133" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I133" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K133" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D134" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H134" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E134" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H134" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I134" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K134" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D135" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H135" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I135" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K135" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D136" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H136" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E136" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H136" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I136" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K136" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D137" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H137" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E137" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H137" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I137" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K137" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D138" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H138" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H138" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I138" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K138" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D139" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H139" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H139" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I139" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K139" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D140" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H140" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E140" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I140" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K140" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H141" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E141" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H141" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I141" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K141" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D142" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I142" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K142" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D143" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H143" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E143" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H143" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I143" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K143" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D144" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H144" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E144" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H144" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I144" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K144" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D145" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H145" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E145" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H145" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I145" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K145" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H146" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E146" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H146" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I146" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K146" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D147" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H147" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H147" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I147" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K147" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D148" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H148" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H148" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I148" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K148" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D149" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H149" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I149" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K149" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H150" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E150" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H150" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I150" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K150" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D151" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H151" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I151" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K151" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D152" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H152" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E152" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="I152" s="6" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
       <c r="K152" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H153" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I153" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" s="6">
+        <v>1</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L153" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="I153" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" s="6">
-        <v>1</v>
-      </c>
-      <c r="K153" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L153" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H154" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="I154" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J154" s="6">
+        <v>1</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L154" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="I154" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J154" s="6">
-        <v>1</v>
-      </c>
-      <c r="K154" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L154" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E155" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I155" s="6" t="b">
         <v>1</v>
@@ -6915,31 +6952,31 @@
         <v>1</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C156" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H156" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D156" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H156" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="I156" s="6" t="b">
         <v>1</v>
       </c>
@@ -6947,1344 +6984,1344 @@
         <v>1</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I157" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I158" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K158" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I159" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K159" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I160" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K160" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I161" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K161" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H162" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="I162" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L162" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="I162" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L162" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I163" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I164" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I165" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I166" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I167" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I168" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I169" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I170" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I171" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K171" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C172" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H172" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D172" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H172" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="I172" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I173" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K173" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H174" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I174" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H175" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I175" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K175" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H176" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I176" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K176" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H177" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I177" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L177" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I178" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L178" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C179" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H179" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D179" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H179" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="I179" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L179" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H180" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I180" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L180" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H181" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I181" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L181" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C182" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H182" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D182" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H182" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="I182" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L182" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C183" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H183" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D183" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H183" s="6" t="s">
-        <v>440</v>
-      </c>
       <c r="I183" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H184" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I184" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L184" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="I184" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K184" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L184" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H185" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I185" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H186" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I186" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H187" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I187" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K187" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L187" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I188" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K188" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L188" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E189" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H189" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I189" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E190" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H190" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I190" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K190" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I191" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I192" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K192" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I193" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H194" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I194" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K194" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="195" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H195" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I195" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K195" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H196" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I196" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K196" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I197" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H198" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I198" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K198" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I199" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I200" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I201" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C202" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="H202" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D202" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="H202" s="6" t="s">
-        <v>466</v>
-      </c>
       <c r="I202" s="6" t="b">
         <v>0</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\edec-codelists\work-in-progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331891AE-F453-481A-91FD-4538B5B585D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCEB4AE-10B3-4786-8DCF-E2D9A2D8FC16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11895" yWindow="660" windowWidth="25470" windowHeight="20340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="471">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1038,12 +1038,6 @@
     <t>TICC-180</t>
   </si>
   <si>
-    <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:01:1.0</t>
-  </si>
-  <si>
-    <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:02:1.0</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:09:1.0</t>
   </si>
   <si>
@@ -1465,6 +1459,29 @@
   </si>
   <si>
     <t>TICC-54</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:01:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:03:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:02:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:04:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:01:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:02:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:03:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:04:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:01:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:03:1.0
+cenbii-procid-ubl::urn:fdc:bits.no:2017:profile:09:1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:09:1.0
+cenbii-procid-ubl::urn:fdc:anskaffelser.no:2019:ehf:postaward:g3:02:1.0</t>
   </si>
 </sst>
 </file>
@@ -2023,9 +2040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A148" sqref="A148:XFD148"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I109" sqref="I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,16 +2073,16 @@
         <v>151</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>134</v>
@@ -2097,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F2" s="7">
         <v>2</v>
@@ -2130,7 +2147,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F3" s="7">
         <v>2</v>
@@ -2163,7 +2180,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F4" s="7">
         <v>2</v>
@@ -2196,7 +2213,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F5" s="7">
         <v>2</v>
@@ -2229,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F6" s="7">
         <v>2</v>
@@ -2262,7 +2279,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7">
         <v>2</v>
@@ -2295,7 +2312,7 @@
         <v>27</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7">
         <v>7</v>
@@ -2328,7 +2345,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F9" s="7">
         <v>2</v>
@@ -2349,7 +2366,7 @@
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>56</v>
@@ -2361,13 +2378,13 @@
         <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F10" s="7">
         <v>3</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I10" s="6" t="b">
         <f>TRUE</f>
@@ -2397,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F11" s="7">
         <v>7</v>
@@ -2430,7 +2447,7 @@
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F12" s="7">
         <v>2</v>
@@ -2463,7 +2480,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F13" s="7">
         <v>7</v>
@@ -2496,7 +2513,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
@@ -2529,7 +2546,7 @@
         <v>17</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F15" s="7">
         <v>2</v>
@@ -2562,7 +2579,7 @@
         <v>17</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7">
         <v>2</v>
@@ -2595,7 +2612,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7">
         <v>7</v>
@@ -2628,7 +2645,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F18" s="7">
         <v>7</v>
@@ -2661,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7">
         <v>7</v>
@@ -2694,7 +2711,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7">
         <v>7</v>
@@ -2727,7 +2744,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F21" s="7">
         <v>7</v>
@@ -2760,7 +2777,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7">
         <v>7</v>
@@ -2793,7 +2810,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F23" s="7">
         <v>7</v>
@@ -2826,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7">
         <v>7</v>
@@ -2859,7 +2876,7 @@
         <v>23</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F25" s="7">
         <v>2</v>
@@ -2889,7 +2906,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I26" s="6" t="b">
         <f>FALSE</f>
@@ -2916,7 +2933,7 @@
         <v>27</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F27" s="7">
         <v>7</v>
@@ -2937,7 +2954,7 @@
     </row>
     <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>56</v>
@@ -2949,13 +2966,13 @@
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F28" s="7">
         <v>3</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I28" s="6" t="b">
         <f>TRUE</f>
@@ -2985,7 +3002,7 @@
         <v>3</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7">
         <v>7</v>
@@ -3018,7 +3035,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F30" s="7">
         <v>7</v>
@@ -3051,7 +3068,7 @@
         <v>27</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F31" s="7">
         <v>7</v>
@@ -3084,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I32" s="6" t="b">
         <f>TRUE</f>
@@ -3114,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I33" s="6" t="b">
         <f>TRUE</f>
@@ -3144,7 +3161,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I34" s="6" t="b">
         <f>FALSE</f>
@@ -3159,7 +3176,7 @@
     </row>
     <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>56</v>
@@ -3171,13 +3188,13 @@
         <v>3</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>324</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="I35" s="6" t="b">
         <f>FALSE</f>
@@ -3198,16 +3215,16 @@
         <v>56</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I36" s="6" t="b">
         <f>FALSE</f>
@@ -3234,7 +3251,7 @@
         <v>3</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I37" s="6" t="b">
         <f>TRUE</f>
@@ -3264,7 +3281,7 @@
         <v>3</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I38" s="6" t="b">
         <f>TRUE</f>
@@ -3294,7 +3311,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I39" s="6" t="b">
         <f>TRUE</f>
@@ -3324,7 +3341,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I40" s="6" t="b">
         <f>TRUE</f>
@@ -3354,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I41" s="6" t="b">
         <f>TRUE</f>
@@ -3384,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I42" s="6" t="b">
         <f>TRUE</f>
@@ -3414,7 +3431,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I43" s="6" t="b">
         <f>TRUE</f>
@@ -3444,13 +3461,13 @@
         <v>3</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F44" s="7">
         <v>5</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I44" s="6" t="b">
         <f>FALSE</f>
@@ -3477,13 +3494,13 @@
         <v>3</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F45" s="7">
         <v>5</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I45" s="6" t="b">
         <f>FALSE</f>
@@ -3510,13 +3527,13 @@
         <v>3</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F46" s="7">
         <v>5</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I46" s="6" t="b">
         <f>FALSE</f>
@@ -3543,10 +3560,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I47" s="6" t="b">
         <f>FALSE</f>
@@ -3573,10 +3590,10 @@
         <v>3</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="I48" s="6" t="b">
         <f>FALSE</f>
@@ -3603,10 +3620,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I49" s="6" t="b">
         <f>FALSE</f>
@@ -3633,10 +3650,10 @@
         <v>3</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I50" s="6" t="b">
         <f>FALSE</f>
@@ -3663,7 +3680,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F51" s="7">
         <v>7</v>
@@ -3696,7 +3713,7 @@
         <v>4</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I52" s="6" t="b">
         <f>TRUE</f>
@@ -3726,7 +3743,7 @@
         <v>4</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I53" s="6" t="b">
         <f>TRUE</f>
@@ -3756,7 +3773,7 @@
         <v>4</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I54" s="6" t="b">
         <f>TRUE</f>
@@ -3786,7 +3803,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I55" s="6" t="b">
         <f>TRUE</f>
@@ -3816,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I56" s="6" t="b">
         <f>TRUE</f>
@@ -3846,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I57" s="6" t="b">
         <f>TRUE</f>
@@ -3876,7 +3893,7 @@
         <v>4</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I58" s="6" t="b">
         <f>TRUE</f>
@@ -3906,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I59" s="6" t="b">
         <f>TRUE</f>
@@ -3936,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I60" s="6" t="b">
         <f>TRUE</f>
@@ -3966,7 +3983,7 @@
         <v>4</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I61" s="6" t="b">
         <f>FALSE</f>
@@ -3993,7 +4010,7 @@
         <v>4</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I62" s="6" t="b">
         <f>FALSE</f>
@@ -4020,7 +4037,7 @@
         <v>4</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I63" s="6" t="b">
         <f>TRUE</f>
@@ -4038,7 +4055,7 @@
     </row>
     <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>56</v>
@@ -4050,13 +4067,13 @@
         <v>4</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F64" s="7">
         <v>6</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I64" s="6" t="b">
         <f>TRUE</f>
@@ -4086,10 +4103,10 @@
         <v>6</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="I65" s="6" t="b">
         <f>TRUE</f>
@@ -4119,7 +4136,7 @@
         <v>5</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H66" s="6" t="s">
         <v>196</v>
@@ -4149,7 +4166,7 @@
         <v>5</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H67" s="6" t="s">
         <v>196</v>
@@ -4179,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H68" s="6" t="s">
         <v>196</v>
@@ -4209,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>242</v>
@@ -4239,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H70" s="6" t="s">
         <v>243</v>
@@ -4269,7 +4286,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H71" s="6" t="s">
         <v>244</v>
@@ -4299,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H72" s="6" t="s">
         <v>241</v>
@@ -4332,7 +4349,7 @@
         <v>6</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H73" s="6" t="s">
         <v>241</v>
@@ -4365,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H74" s="6" t="s">
         <v>279</v>
@@ -4395,7 +4412,7 @@
         <v>6</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H75" s="6" t="s">
         <v>279</v>
@@ -4425,7 +4442,7 @@
         <v>6</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H76" s="6" t="s">
         <v>240</v>
@@ -4455,7 +4472,7 @@
         <v>6</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H77" s="6" t="s">
         <v>240</v>
@@ -4485,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>232</v>
@@ -4519,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>232</v>
@@ -4553,7 +4570,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F80" s="11" t="s">
         <v>232</v>
@@ -4587,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H81" s="6" t="s">
         <v>239</v>
@@ -4617,7 +4634,7 @@
         <v>7</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H82" s="6" t="s">
         <v>239</v>
@@ -4647,7 +4664,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>272</v>
@@ -4681,7 +4698,7 @@
         <v>272</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H84" s="6" t="s">
         <v>273</v>
@@ -4711,7 +4728,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F85" s="11" t="s">
         <v>232</v>
@@ -4745,7 +4762,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>232</v>
@@ -4779,7 +4796,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>232</v>
@@ -4813,7 +4830,7 @@
         <v>7</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H88" s="6" t="s">
         <v>238</v>
@@ -4843,7 +4860,7 @@
         <v>7</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F89" s="12" t="s">
         <v>256</v>
@@ -4877,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F90" s="12" t="s">
         <v>256</v>
@@ -4911,7 +4928,7 @@
         <v>7</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F91" s="12" t="s">
         <v>256</v>
@@ -4945,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F92" s="12" t="s">
         <v>256</v>
@@ -4979,7 +4996,7 @@
         <v>7</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H93" s="6" t="s">
         <v>236</v>
@@ -5009,7 +5026,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H94" s="6" t="s">
         <v>236</v>
@@ -5039,7 +5056,7 @@
         <v>7</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H95" s="6" t="s">
         <v>236</v>
@@ -5069,7 +5086,7 @@
         <v>232</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H96" s="6" t="s">
         <v>235</v>
@@ -5099,7 +5116,7 @@
         <v>232</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H97" s="6" t="s">
         <v>235</v>
@@ -5129,14 +5146,14 @@
         <v>232</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F98" s="12" t="s">
         <v>272</v>
       </c>
       <c r="G98" s="22"/>
       <c r="H98" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I98" s="6" t="b">
         <f>FALSE</f>
@@ -5163,7 +5180,7 @@
         <v>272</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H99" s="6" t="s">
         <v>273</v>
@@ -5193,7 +5210,7 @@
         <v>232</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H100" s="6" t="s">
         <v>278</v>
@@ -5223,7 +5240,7 @@
         <v>232</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H101" s="6" t="s">
         <v>246</v>
@@ -5253,7 +5270,7 @@
         <v>255</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H102" s="6" t="s">
         <v>253</v>
@@ -5283,7 +5300,7 @@
         <v>256</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H103" s="6" t="s">
         <v>258</v>
@@ -5310,7 +5327,7 @@
         <v>256</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H104" s="6" t="s">
         <v>269</v>
@@ -5323,7 +5340,7 @@
         <v>138</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>214</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5340,7 +5357,7 @@
         <v>256</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H105" s="6" t="s">
         <v>269</v>
@@ -5370,7 +5387,7 @@
         <v>256</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H106" s="6" t="s">
         <v>269</v>
@@ -5400,7 +5417,7 @@
         <v>256</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H107" s="6" t="s">
         <v>269</v>
@@ -5413,7 +5430,7 @@
         <v>138</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>214</v>
+        <v>470</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5430,7 +5447,7 @@
         <v>324</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H108" s="6" t="s">
         <v>325</v>
@@ -5440,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="K108" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>281</v>
       </c>
@@ -5460,7 +5477,7 @@
         <v>324</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H109" s="6" t="s">
         <v>325</v>
@@ -5470,13 +5487,13 @@
         <v>0</v>
       </c>
       <c r="K109" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>282</v>
       </c>
@@ -5490,7 +5507,7 @@
         <v>324</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H110" s="6" t="s">
         <v>325</v>
@@ -5500,10 +5517,10 @@
         <v>0</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>326</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5520,7 +5537,7 @@
         <v>324</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H111" s="6" t="s">
         <v>325</v>
@@ -5530,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="K111" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>326</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5550,7 +5567,7 @@
         <v>324</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H112" s="6" t="s">
         <v>325</v>
@@ -5560,10 +5577,10 @@
         <v>0</v>
       </c>
       <c r="K112" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5580,7 +5597,7 @@
         <v>324</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H113" s="6" t="s">
         <v>325</v>
@@ -5590,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="K113" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>326</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5610,7 +5627,7 @@
         <v>324</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H114" s="6" t="s">
         <v>325</v>
@@ -5620,13 +5637,13 @@
         <v>0</v>
       </c>
       <c r="K114" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>287</v>
       </c>
@@ -5640,7 +5657,7 @@
         <v>324</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H115" s="6" t="s">
         <v>325</v>
@@ -5650,13 +5667,13 @@
         <v>0</v>
       </c>
       <c r="K115" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>288</v>
       </c>
@@ -5670,7 +5687,7 @@
         <v>324</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H116" s="6" t="s">
         <v>325</v>
@@ -5680,10 +5697,10 @@
         <v>0</v>
       </c>
       <c r="K116" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>326</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5700,7 +5717,7 @@
         <v>324</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H117" s="6" t="s">
         <v>325</v>
@@ -5710,10 +5727,10 @@
         <v>0</v>
       </c>
       <c r="K117" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5730,7 +5747,7 @@
         <v>324</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H118" s="6" t="s">
         <v>325</v>
@@ -5740,10 +5757,10 @@
         <v>0</v>
       </c>
       <c r="K118" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5760,7 +5777,7 @@
         <v>324</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H119" s="6" t="s">
         <v>325</v>
@@ -5770,10 +5787,10 @@
         <v>0</v>
       </c>
       <c r="K119" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5790,7 +5807,7 @@
         <v>324</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H120" s="6" t="s">
         <v>325</v>
@@ -5800,10 +5817,10 @@
         <v>0</v>
       </c>
       <c r="K120" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5820,7 +5837,7 @@
         <v>324</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H121" s="6" t="s">
         <v>325</v>
@@ -5830,10 +5847,10 @@
         <v>0</v>
       </c>
       <c r="K121" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -5850,7 +5867,7 @@
         <v>324</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H122" s="6" t="s">
         <v>325</v>
@@ -5860,10 +5877,10 @@
         <v>0</v>
       </c>
       <c r="K122" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>327</v>
+        <v>467</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5880,7 +5897,7 @@
         <v>324</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H123" s="6" t="s">
         <v>325</v>
@@ -5890,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="K123" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5910,7 +5927,7 @@
         <v>324</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H124" s="6" t="s">
         <v>325</v>
@@ -5920,10 +5937,10 @@
         <v>0</v>
       </c>
       <c r="K124" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5940,7 +5957,7 @@
         <v>324</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H125" s="6" t="s">
         <v>325</v>
@@ -5950,10 +5967,10 @@
         <v>0</v>
       </c>
       <c r="K125" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -5970,7 +5987,7 @@
         <v>324</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>325</v>
@@ -5980,10 +5997,10 @@
         <v>0</v>
       </c>
       <c r="K126" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -6000,7 +6017,7 @@
         <v>324</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H127" s="6" t="s">
         <v>325</v>
@@ -6010,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="K127" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6030,7 +6047,7 @@
         <v>324</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H128" s="6" t="s">
         <v>325</v>
@@ -6040,10 +6057,10 @@
         <v>0</v>
       </c>
       <c r="K128" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -6060,7 +6077,7 @@
         <v>324</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H129" s="6" t="s">
         <v>325</v>
@@ -6070,30 +6087,30 @@
         <v>0</v>
       </c>
       <c r="K129" s="16" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I130" s="6" t="b">
         <v>1</v>
@@ -6105,27 +6122,27 @@
         <v>137</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I131" s="6" t="b">
         <v>1</v>
@@ -6137,27 +6154,27 @@
         <v>137</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I132" s="6" t="b">
         <v>1</v>
@@ -6169,27 +6186,27 @@
         <v>137</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I133" s="6" t="b">
         <v>1</v>
@@ -6201,27 +6218,27 @@
         <v>137</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E134" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I134" s="6" t="b">
         <v>0</v>
@@ -6235,22 +6252,22 @@
     </row>
     <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I135" s="6" t="b">
         <v>0</v>
@@ -6264,22 +6281,22 @@
     </row>
     <row r="136" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E136" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I136" s="6" t="b">
         <v>0</v>
@@ -6293,22 +6310,22 @@
     </row>
     <row r="137" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I137" s="6" t="b">
         <v>0</v>
@@ -6322,22 +6339,22 @@
     </row>
     <row r="138" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I138" s="6" t="b">
         <v>0</v>
@@ -6351,22 +6368,22 @@
     </row>
     <row r="139" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I139" s="6" t="b">
         <v>0</v>
@@ -6375,85 +6392,85 @@
         <v>138</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H140" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I140" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K140" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L140" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="I140" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H141" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="I141" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L141" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="I141" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L141" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E142" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I142" s="6" t="b">
         <v>0</v>
@@ -6462,27 +6479,27 @@
         <v>138</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I143" s="6" t="b">
         <v>0</v>
@@ -6491,27 +6508,27 @@
         <v>138</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I144" s="6" t="b">
         <v>0</v>
@@ -6520,27 +6537,27 @@
         <v>138</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E145" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I145" s="6" t="b">
         <v>0</v>
@@ -6549,27 +6566,27 @@
         <v>138</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E146" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I146" s="6" t="b">
         <v>0</v>
@@ -6578,27 +6595,27 @@
         <v>138</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>56</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I147" s="6" t="b">
         <v>0</v>
@@ -6607,27 +6624,27 @@
         <v>138</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I148" s="6" t="b">
         <v>0</v>
@@ -6641,22 +6658,22 @@
     </row>
     <row r="149" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H149" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I149" s="6" t="b">
         <v>0</v>
@@ -6670,22 +6687,22 @@
     </row>
     <row r="150" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="I150" s="6" t="b">
         <v>0</v>
@@ -6699,22 +6716,22 @@
     </row>
     <row r="151" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E151" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I151" s="6" t="b">
         <v>0</v>
@@ -6728,22 +6745,22 @@
     </row>
     <row r="152" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I152" s="6" t="b">
         <v>0</v>
@@ -6757,22 +6774,22 @@
     </row>
     <row r="153" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E153" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I153" s="6" t="b">
         <v>0</v>
@@ -6786,52 +6803,52 @@
     </row>
     <row r="154" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E154" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H154" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H154" s="6" t="s">
+      <c r="I154" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K154" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L154" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="I154" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K154" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L154" s="6" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E155" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H155" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H155" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="I155" s="6" t="b">
         <v>0</v>
       </c>
@@ -6839,28 +6856,28 @@
         <v>138</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E156" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="H156" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="H156" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="I156" s="6" t="b">
         <v>0</v>
       </c>
@@ -6868,27 +6885,27 @@
         <v>138</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E157" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I157" s="6" t="b">
         <v>0</v>
@@ -6897,27 +6914,27 @@
         <v>137</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E158" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H158" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I158" s="6" t="b">
         <v>0</v>
@@ -6926,27 +6943,27 @@
         <v>137</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H159" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I159" s="6" t="b">
         <v>0</v>
@@ -6955,27 +6972,27 @@
         <v>137</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E160" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H160" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I160" s="6" t="b">
         <v>0</v>
@@ -6984,27 +7001,27 @@
         <v>137</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I161" s="6" t="b">
         <v>0</v>
@@ -7013,27 +7030,27 @@
         <v>137</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D162" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E162" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H162" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I162" s="6" t="b">
         <v>0</v>
@@ -7042,27 +7059,27 @@
         <v>137</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I163" s="6" t="b">
         <v>0</v>
@@ -7071,27 +7088,27 @@
         <v>137</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H164" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I164" s="6" t="b">
         <v>0</v>
@@ -7100,27 +7117,27 @@
         <v>137</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D165" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H165" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I165" s="6" t="b">
         <v>0</v>
@@ -7129,27 +7146,27 @@
         <v>137</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D166" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I166" s="6" t="b">
         <v>0</v>
@@ -7158,27 +7175,27 @@
         <v>137</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D167" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I167" s="6" t="b">
         <v>0</v>
@@ -7187,27 +7204,27 @@
         <v>137</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H168" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I168" s="6" t="b">
         <v>0</v>
@@ -7216,27 +7233,27 @@
         <v>137</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D169" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I169" s="6" t="b">
         <v>0</v>
@@ -7245,27 +7262,27 @@
         <v>137</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I170" s="6" t="b">
         <v>0</v>
@@ -7274,27 +7291,27 @@
         <v>137</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D171" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I171" s="6" t="b">
         <v>0</v>
@@ -7303,27 +7320,27 @@
         <v>137</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D172" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I172" s="6" t="b">
         <v>0</v>
@@ -7332,27 +7349,27 @@
         <v>137</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H173" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="I173" s="6" t="b">
         <v>0</v>
@@ -7361,7 +7378,7 @@
         <v>137</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
